--- a/data/zenodo_ivan/conversion/passenger/CHE_convpass_BUSe.xlsx
+++ b/data/zenodo_ivan/conversion/passenger/CHE_convpass_BUSe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/passenger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82395F84-182B-FD4E-B6E0-9CC7B3371892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56080083-94F6-F045-960F-026617726FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$844</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$811</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="89">
   <si>
     <t>Name:</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Assumption</t>
   </si>
   <si>
-    <t>Same as cars</t>
-  </si>
-  <si>
     <t>Average distance driven by all public buses (incl. Minibuses) and private buses between 1990-2021</t>
   </si>
   <si>
@@ -294,6 +291,15 @@
   </si>
   <si>
     <t>CHE_convpass_BUSe.xlsx</t>
+  </si>
+  <si>
+    <t>Federal Office of Spatial Development, Mobility and Transport Microcensus 2021</t>
+  </si>
+  <si>
+    <t>https://www.are.admin.ch/are/en/home/mobility/data/mtmc.html</t>
+  </si>
+  <si>
+    <t>Table G3.3.1.6</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -742,11 +758,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L428"/>
+  <dimension ref="A1:L395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F340" sqref="F340"/>
+      <pane ySplit="5" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -767,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -776,7 +792,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">TODAY()</f>
-        <v>45033</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -830,7 +846,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -881,7 +897,7 @@
         <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -890,11 +906,11 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f t="shared" ref="A9:A74" si="0">$A$6</f>
+        <f t="shared" ref="A9:A73" si="0">$A$6</f>
         <v>CHE</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" ref="B9:B74" si="1">$B$6</f>
+        <f t="shared" ref="B9:B73" si="1">$B$6</f>
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C9" t="s">
@@ -929,9 +945,6 @@
       <c r="F10" t="s">
         <v>51</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -989,7 +1002,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1014,13 +1027,13 @@
         <v>42</v>
       </c>
       <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" t="s">
         <v>57</v>
-      </c>
-      <c r="L13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1042,17 +1055,19 @@
         <v>50</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1064,27 +1079,29 @@
         <f t="shared" si="1"/>
         <v>conv_pass_BUSe</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
+      <c r="C15" t="s">
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>1990</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>0.36438772213247173</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1103,22 +1120,22 @@
         <v>32</v>
       </c>
       <c r="E16">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="G16">
-        <v>0.36438772213247173</v>
+        <v>0.71657926589640808</v>
       </c>
       <c r="H16" t="s">
         <v>49</v>
       </c>
       <c r="J16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" t="s">
         <v>60</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1137,22 +1154,22 @@
         <v>32</v>
       </c>
       <c r="E17">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="G17">
-        <v>0.71657926589640808</v>
+        <v>0.69036525785188052</v>
       </c>
       <c r="H17" t="s">
         <v>49</v>
       </c>
       <c r="J17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" t="s">
         <v>60</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1171,22 +1188,22 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="G18">
-        <v>0.69036525785188052</v>
+        <v>0.61691678129298488</v>
       </c>
       <c r="H18" t="s">
         <v>49</v>
       </c>
       <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" t="s">
         <v>60</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1205,22 +1222,22 @@
         <v>32</v>
       </c>
       <c r="E19">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="G19">
-        <v>0.61691678129298488</v>
+        <v>0.62607807718145869</v>
       </c>
       <c r="H19" t="s">
         <v>49</v>
       </c>
       <c r="J19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" t="s">
         <v>60</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1239,22 +1256,22 @@
         <v>32</v>
       </c>
       <c r="E20">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="G20">
-        <v>0.62607807718145869</v>
+        <v>0.65948926882502734</v>
       </c>
       <c r="H20" t="s">
         <v>49</v>
       </c>
       <c r="J20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" t="s">
         <v>60</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1273,22 +1290,22 @@
         <v>32</v>
       </c>
       <c r="E21">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="G21">
-        <v>0.65948926882502734</v>
+        <v>0.620100438564958</v>
       </c>
       <c r="H21" t="s">
         <v>49</v>
       </c>
       <c r="J21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" t="s">
         <v>60</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1307,22 +1324,22 @@
         <v>32</v>
       </c>
       <c r="E22">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="G22">
-        <v>0.620100438564958</v>
+        <v>0.66791513357298937</v>
       </c>
       <c r="H22" t="s">
         <v>49</v>
       </c>
       <c r="J22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" t="s">
         <v>60</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L22" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1341,22 +1358,22 @@
         <v>32</v>
       </c>
       <c r="E23">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="G23">
-        <v>0.66791513357298937</v>
+        <v>0.64826362694300521</v>
       </c>
       <c r="H23" t="s">
         <v>49</v>
       </c>
       <c r="J23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" t="s">
         <v>60</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L23" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1375,22 +1392,22 @@
         <v>32</v>
       </c>
       <c r="E24">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="G24">
-        <v>0.64826362694300521</v>
+        <v>0.58966169955698755</v>
       </c>
       <c r="H24" t="s">
         <v>49</v>
       </c>
       <c r="J24" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" t="s">
         <v>60</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1409,22 +1426,22 @@
         <v>32</v>
       </c>
       <c r="E25">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="G25">
-        <v>0.58966169955698755</v>
+        <v>0.61144665258153963</v>
       </c>
       <c r="H25" t="s">
         <v>49</v>
       </c>
       <c r="J25" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" t="s">
         <v>60</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1443,22 +1460,22 @@
         <v>32</v>
       </c>
       <c r="E26">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="G26">
-        <v>0.61144665258153963</v>
+        <v>0.61522422070024974</v>
       </c>
       <c r="H26" t="s">
         <v>49</v>
       </c>
       <c r="J26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" t="s">
         <v>60</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1477,22 +1494,22 @@
         <v>32</v>
       </c>
       <c r="E27">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="G27">
-        <v>0.61522422070024974</v>
+        <v>0.66772210024465206</v>
       </c>
       <c r="H27" t="s">
         <v>49</v>
       </c>
       <c r="J27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" t="s">
         <v>60</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1511,22 +1528,22 @@
         <v>32</v>
       </c>
       <c r="E28">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="G28">
-        <v>0.66772210024465206</v>
+        <v>0.54524997469292014</v>
       </c>
       <c r="H28" t="s">
         <v>49</v>
       </c>
       <c r="J28" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" t="s">
         <v>60</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1545,22 +1562,22 @@
         <v>32</v>
       </c>
       <c r="E29">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G29">
-        <v>0.54524997469292014</v>
+        <v>0.54376816082121471</v>
       </c>
       <c r="H29" t="s">
         <v>49</v>
       </c>
       <c r="J29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" t="s">
         <v>60</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L29" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1579,22 +1596,22 @@
         <v>32</v>
       </c>
       <c r="E30">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="G30">
-        <v>0.54376816082121471</v>
+        <v>0.64827492739593418</v>
       </c>
       <c r="H30" t="s">
         <v>49</v>
       </c>
       <c r="J30" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" t="s">
         <v>60</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L30" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1613,22 +1630,22 @@
         <v>32</v>
       </c>
       <c r="E31">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="G31">
-        <v>0.64827492739593418</v>
+        <v>0.65810334603981369</v>
       </c>
       <c r="H31" t="s">
         <v>49</v>
       </c>
       <c r="J31" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" t="s">
         <v>60</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L31" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1647,22 +1664,22 @@
         <v>32</v>
       </c>
       <c r="E32">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="G32">
-        <v>0.65810334603981369</v>
+        <v>0.63440210488114679</v>
       </c>
       <c r="H32" t="s">
         <v>49</v>
       </c>
       <c r="J32" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" t="s">
         <v>60</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L32" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1681,22 +1698,22 @@
         <v>32</v>
       </c>
       <c r="E33">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="G33">
-        <v>0.63440210488114679</v>
+        <v>0.73270321361058599</v>
       </c>
       <c r="H33" t="s">
         <v>49</v>
       </c>
       <c r="J33" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" t="s">
         <v>60</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L33" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1715,22 +1732,22 @@
         <v>32</v>
       </c>
       <c r="E34">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G34">
-        <v>0.73270321361058599</v>
+        <v>0.53040329629167193</v>
       </c>
       <c r="H34" t="s">
         <v>49</v>
       </c>
       <c r="J34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" t="s">
         <v>60</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L34" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1749,22 +1766,22 @@
         <v>32</v>
       </c>
       <c r="E35">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G35">
-        <v>0.53040329629167193</v>
+        <v>0.56264625131995782</v>
       </c>
       <c r="H35" t="s">
         <v>49</v>
       </c>
       <c r="J35" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" t="s">
         <v>60</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L35" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1783,22 +1800,22 @@
         <v>32</v>
       </c>
       <c r="E36">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G36">
-        <v>0.56264625131995782</v>
+        <v>0.94556545758513932</v>
       </c>
       <c r="H36" t="s">
         <v>49</v>
       </c>
       <c r="J36" t="s">
+        <v>59</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" t="s">
         <v>60</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L36" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1817,22 +1834,22 @@
         <v>32</v>
       </c>
       <c r="E37">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G37">
-        <v>0.94556545758513932</v>
+        <v>0.99319325415676962</v>
       </c>
       <c r="H37" t="s">
         <v>49</v>
       </c>
       <c r="J37" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" t="s">
         <v>60</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L37" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1851,22 +1868,22 @@
         <v>32</v>
       </c>
       <c r="E38">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G38">
-        <v>0.99319325415676962</v>
+        <v>1.1465357015927342</v>
       </c>
       <c r="H38" t="s">
         <v>49</v>
       </c>
       <c r="J38" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" t="s">
         <v>60</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L38" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1885,22 +1902,22 @@
         <v>32</v>
       </c>
       <c r="E39">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G39">
-        <v>1.1465357015927342</v>
+        <v>1.2811322468868434</v>
       </c>
       <c r="H39" t="s">
         <v>49</v>
       </c>
       <c r="J39" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" t="s">
         <v>60</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L39" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1919,22 +1936,22 @@
         <v>32</v>
       </c>
       <c r="E40">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G40">
-        <v>1.2811322468868434</v>
+        <v>1.4071691457492645</v>
       </c>
       <c r="H40" t="s">
         <v>49</v>
       </c>
       <c r="J40" t="s">
+        <v>59</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" t="s">
         <v>60</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L40" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1953,22 +1970,22 @@
         <v>32</v>
       </c>
       <c r="E41">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G41">
-        <v>1.4071691457492645</v>
+        <v>1.490523633093525</v>
       </c>
       <c r="H41" t="s">
         <v>49</v>
       </c>
       <c r="J41" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41" t="s">
         <v>60</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L41" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1987,22 +2004,22 @@
         <v>32</v>
       </c>
       <c r="E42">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G42">
-        <v>1.490523633093525</v>
+        <v>1.5785692199873853</v>
       </c>
       <c r="H42" t="s">
         <v>49</v>
       </c>
       <c r="J42" t="s">
+        <v>59</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" t="s">
         <v>60</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L42" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -2021,22 +2038,22 @@
         <v>32</v>
       </c>
       <c r="E43">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G43">
-        <v>1.5785692199873853</v>
+        <v>2.2011159187153617</v>
       </c>
       <c r="H43" t="s">
         <v>49</v>
       </c>
       <c r="J43" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" t="s">
         <v>60</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L43" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2055,22 +2072,22 @@
         <v>32</v>
       </c>
       <c r="E44">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G44">
-        <v>2.2011159187153617</v>
+        <v>2.6435050576036869</v>
       </c>
       <c r="H44" t="s">
         <v>49</v>
       </c>
       <c r="J44" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" t="s">
         <v>60</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L44" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2089,22 +2106,22 @@
         <v>32</v>
       </c>
       <c r="E45">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G45">
-        <v>2.6435050576036869</v>
+        <v>3.1636745065398335</v>
       </c>
       <c r="H45" t="s">
         <v>49</v>
       </c>
       <c r="J45" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" t="s">
         <v>60</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2123,22 +2140,22 @@
         <v>32</v>
       </c>
       <c r="E46">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G46">
-        <v>3.1636745065398335</v>
+        <v>4.8989420956143821</v>
       </c>
       <c r="H46" t="s">
         <v>49</v>
       </c>
       <c r="J46" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" t="s">
         <v>60</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L46" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2151,28 +2168,28 @@
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1990</v>
+      </c>
+      <c r="G47">
         <v>16</v>
       </c>
-      <c r="D47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47">
-        <v>2021</v>
-      </c>
-      <c r="G47">
-        <v>4.8989420956143821</v>
-      </c>
       <c r="H47" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2191,22 +2208,22 @@
         <v>32</v>
       </c>
       <c r="E48" s="4">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="G48">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H48" t="s">
         <v>43</v>
       </c>
       <c r="J48" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L48" t="s">
         <v>63</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L48" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2225,22 +2242,22 @@
         <v>32</v>
       </c>
       <c r="E49" s="4">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="G49">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49" t="s">
         <v>43</v>
       </c>
       <c r="J49" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L49" t="s">
         <v>63</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L49" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2259,22 +2276,22 @@
         <v>32</v>
       </c>
       <c r="E50" s="4">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="G50">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H50" t="s">
         <v>43</v>
       </c>
       <c r="J50" t="s">
+        <v>62</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L50" t="s">
         <v>63</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L50" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2293,22 +2310,22 @@
         <v>32</v>
       </c>
       <c r="E51" s="4">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="G51">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H51" t="s">
         <v>43</v>
       </c>
       <c r="J51" t="s">
+        <v>62</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L51" t="s">
         <v>63</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L51" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2327,22 +2344,22 @@
         <v>32</v>
       </c>
       <c r="E52" s="4">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="G52">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
         <v>43</v>
       </c>
       <c r="J52" t="s">
+        <v>62</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L52" t="s">
         <v>63</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L52" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2361,22 +2378,22 @@
         <v>32</v>
       </c>
       <c r="E53" s="4">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="G53">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H53" t="s">
         <v>43</v>
       </c>
       <c r="J53" t="s">
+        <v>62</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L53" t="s">
         <v>63</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L53" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2395,22 +2412,22 @@
         <v>32</v>
       </c>
       <c r="E54" s="4">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="G54">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H54" t="s">
         <v>43</v>
       </c>
       <c r="J54" t="s">
+        <v>62</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L54" t="s">
         <v>63</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L54" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2429,7 +2446,7 @@
         <v>32</v>
       </c>
       <c r="E55" s="4">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="G55">
         <v>32</v>
@@ -2438,13 +2455,13 @@
         <v>43</v>
       </c>
       <c r="J55" t="s">
+        <v>62</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L55" t="s">
         <v>63</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L55" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2463,22 +2480,22 @@
         <v>32</v>
       </c>
       <c r="E56" s="4">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="G56">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H56" t="s">
         <v>43</v>
       </c>
       <c r="J56" t="s">
+        <v>62</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L56" t="s">
         <v>63</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L56" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2497,22 +2514,22 @@
         <v>32</v>
       </c>
       <c r="E57" s="4">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="G57">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57" t="s">
         <v>43</v>
       </c>
       <c r="J57" t="s">
+        <v>62</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L57" t="s">
         <v>63</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L57" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2531,22 +2548,22 @@
         <v>32</v>
       </c>
       <c r="E58" s="4">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="G58">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H58" t="s">
         <v>43</v>
       </c>
       <c r="J58" t="s">
+        <v>62</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L58" t="s">
         <v>63</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L58" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2565,22 +2582,22 @@
         <v>32</v>
       </c>
       <c r="E59" s="4">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="G59">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H59" t="s">
         <v>43</v>
       </c>
       <c r="J59" t="s">
+        <v>62</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L59" t="s">
         <v>63</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L59" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2599,22 +2616,22 @@
         <v>32</v>
       </c>
       <c r="E60" s="4">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="G60">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H60" t="s">
         <v>43</v>
       </c>
       <c r="J60" t="s">
+        <v>62</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L60" t="s">
         <v>63</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L60" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2633,7 +2650,7 @@
         <v>32</v>
       </c>
       <c r="E61" s="4">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G61">
         <v>28</v>
@@ -2642,13 +2659,13 @@
         <v>43</v>
       </c>
       <c r="J61" t="s">
+        <v>62</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L61" t="s">
         <v>63</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L61" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2667,22 +2684,22 @@
         <v>32</v>
       </c>
       <c r="E62" s="4">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="G62">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H62" t="s">
         <v>43</v>
       </c>
       <c r="J62" t="s">
+        <v>62</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L62" t="s">
         <v>63</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L62" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2701,22 +2718,22 @@
         <v>32</v>
       </c>
       <c r="E63" s="4">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="G63">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H63" t="s">
         <v>43</v>
       </c>
       <c r="J63" t="s">
+        <v>62</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L63" t="s">
         <v>63</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L63" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2735,22 +2752,22 @@
         <v>32</v>
       </c>
       <c r="E64" s="4">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="G64">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64" t="s">
         <v>43</v>
       </c>
       <c r="J64" t="s">
+        <v>62</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L64" t="s">
         <v>63</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L64" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2769,22 +2786,22 @@
         <v>32</v>
       </c>
       <c r="E65" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="G65">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H65" t="s">
         <v>43</v>
       </c>
       <c r="J65" t="s">
+        <v>62</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L65" t="s">
         <v>63</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L65" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2803,22 +2820,22 @@
         <v>32</v>
       </c>
       <c r="E66" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G66">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H66" t="s">
         <v>43</v>
       </c>
       <c r="J66" t="s">
+        <v>62</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L66" t="s">
         <v>63</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L66" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2837,22 +2854,22 @@
         <v>32</v>
       </c>
       <c r="E67" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G67">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H67" t="s">
         <v>43</v>
       </c>
       <c r="J67" t="s">
+        <v>62</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L67" t="s">
         <v>63</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L67" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2871,22 +2888,22 @@
         <v>32</v>
       </c>
       <c r="E68" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G68">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H68" t="s">
         <v>43</v>
       </c>
       <c r="J68" t="s">
+        <v>62</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L68" t="s">
         <v>63</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L68" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2905,22 +2922,22 @@
         <v>32</v>
       </c>
       <c r="E69" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G69">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H69" t="s">
         <v>43</v>
       </c>
       <c r="J69" t="s">
+        <v>62</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L69" t="s">
         <v>63</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L69" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2939,22 +2956,22 @@
         <v>32</v>
       </c>
       <c r="E70" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G70">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H70" t="s">
         <v>43</v>
       </c>
       <c r="J70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L70" t="s">
         <v>63</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L70" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2973,22 +2990,22 @@
         <v>32</v>
       </c>
       <c r="E71" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G71">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H71" t="s">
         <v>43</v>
       </c>
       <c r="J71" t="s">
+        <v>62</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L71" t="s">
         <v>63</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L71" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -3007,22 +3024,22 @@
         <v>32</v>
       </c>
       <c r="E72" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G72">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H72" t="s">
         <v>43</v>
       </c>
       <c r="J72" t="s">
+        <v>62</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L72" t="s">
         <v>63</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L72" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -3041,31 +3058,31 @@
         <v>32</v>
       </c>
       <c r="E73" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G73">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H73" t="s">
         <v>43</v>
       </c>
       <c r="J73" t="s">
+        <v>62</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L73" t="s">
         <v>63</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L73" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A74:A135" si="2">$A$6</f>
         <v>CHE</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B74:B135" si="3">$B$6</f>
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C74" t="s">
@@ -3075,31 +3092,31 @@
         <v>32</v>
       </c>
       <c r="E74" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G74">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H74" t="s">
         <v>43</v>
       </c>
       <c r="J74" t="s">
+        <v>62</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L74" t="s">
         <v>63</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L74" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <f t="shared" ref="A75:A136" si="2">$A$6</f>
+        <f t="shared" si="2"/>
         <v>CHE</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" ref="B75:B136" si="3">$B$6</f>
+        <f t="shared" si="3"/>
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C75" t="s">
@@ -3109,22 +3126,22 @@
         <v>32</v>
       </c>
       <c r="E75" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G75">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H75" t="s">
         <v>43</v>
       </c>
       <c r="J75" t="s">
+        <v>62</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L75" t="s">
         <v>63</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L75" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -3143,22 +3160,22 @@
         <v>32</v>
       </c>
       <c r="E76" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G76">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H76" t="s">
         <v>43</v>
       </c>
       <c r="J76" t="s">
+        <v>62</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L76" t="s">
         <v>63</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L76" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3177,22 +3194,22 @@
         <v>32</v>
       </c>
       <c r="E77" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G77">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H77" t="s">
         <v>43</v>
       </c>
       <c r="J77" t="s">
+        <v>62</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L77" t="s">
         <v>63</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L77" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -3211,22 +3228,22 @@
         <v>32</v>
       </c>
       <c r="E78" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G78">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H78" t="s">
         <v>43</v>
       </c>
       <c r="J78" t="s">
+        <v>62</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L78" t="s">
         <v>63</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L78" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3239,28 +3256,28 @@
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E79" s="4">
-        <v>2021</v>
+        <v>1991</v>
       </c>
       <c r="G79">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="H79" t="s">
         <v>43</v>
       </c>
       <c r="J79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L79" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3279,22 +3296,22 @@
         <v>32</v>
       </c>
       <c r="E80" s="4">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="G80">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H80" t="s">
         <v>43</v>
       </c>
       <c r="J80" t="s">
+        <v>64</v>
+      </c>
+      <c r="K80" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="L80" t="s">
         <v>66</v>
-      </c>
-      <c r="L80" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3313,7 +3330,7 @@
         <v>32</v>
       </c>
       <c r="E81" s="4">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3322,13 +3339,13 @@
         <v>43</v>
       </c>
       <c r="J81" t="s">
+        <v>64</v>
+      </c>
+      <c r="K81" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="L81" t="s">
         <v>66</v>
-      </c>
-      <c r="L81" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3347,22 +3364,22 @@
         <v>32</v>
       </c>
       <c r="E82" s="4">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
         <v>43</v>
       </c>
       <c r="J82" t="s">
+        <v>64</v>
+      </c>
+      <c r="K82" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="L82" t="s">
         <v>66</v>
-      </c>
-      <c r="L82" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3381,22 +3398,22 @@
         <v>32</v>
       </c>
       <c r="E83" s="4">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="s">
         <v>43</v>
       </c>
       <c r="J83" t="s">
+        <v>64</v>
+      </c>
+      <c r="K83" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="L83" t="s">
         <v>66</v>
-      </c>
-      <c r="L83" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3415,22 +3432,22 @@
         <v>32</v>
       </c>
       <c r="E84" s="4">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="s">
         <v>43</v>
       </c>
       <c r="J84" t="s">
+        <v>64</v>
+      </c>
+      <c r="K84" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="L84" t="s">
         <v>66</v>
-      </c>
-      <c r="L84" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3449,22 +3466,22 @@
         <v>32</v>
       </c>
       <c r="E85" s="4">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H85" t="s">
         <v>43</v>
       </c>
       <c r="J85" t="s">
+        <v>64</v>
+      </c>
+      <c r="K85" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="L85" t="s">
         <v>66</v>
-      </c>
-      <c r="L85" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3483,22 +3500,22 @@
         <v>32</v>
       </c>
       <c r="E86" s="4">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
         <v>43</v>
       </c>
       <c r="J86" t="s">
+        <v>64</v>
+      </c>
+      <c r="K86" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="L86" t="s">
         <v>66</v>
-      </c>
-      <c r="L86" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3517,7 +3534,7 @@
         <v>32</v>
       </c>
       <c r="E87" s="4">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3526,13 +3543,13 @@
         <v>43</v>
       </c>
       <c r="J87" t="s">
+        <v>64</v>
+      </c>
+      <c r="K87" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="L87" t="s">
         <v>66</v>
-      </c>
-      <c r="L87" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3551,22 +3568,22 @@
         <v>32</v>
       </c>
       <c r="E88" s="4">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>43</v>
       </c>
       <c r="J88" t="s">
+        <v>64</v>
+      </c>
+      <c r="K88" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="L88" t="s">
         <v>66</v>
-      </c>
-      <c r="L88" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3585,7 +3602,7 @@
         <v>32</v>
       </c>
       <c r="E89" s="4">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -3594,13 +3611,13 @@
         <v>43</v>
       </c>
       <c r="J89" t="s">
+        <v>64</v>
+      </c>
+      <c r="K89" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="L89" t="s">
         <v>66</v>
-      </c>
-      <c r="L89" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3619,22 +3636,22 @@
         <v>32</v>
       </c>
       <c r="E90" s="4">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90" t="s">
         <v>43</v>
       </c>
       <c r="J90" t="s">
+        <v>64</v>
+      </c>
+      <c r="K90" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="L90" t="s">
         <v>66</v>
-      </c>
-      <c r="L90" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3653,22 +3670,22 @@
         <v>32</v>
       </c>
       <c r="E91" s="4">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="G91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
         <v>43</v>
       </c>
       <c r="J91" t="s">
+        <v>64</v>
+      </c>
+      <c r="K91" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="L91" t="s">
         <v>66</v>
-      </c>
-      <c r="L91" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3687,7 +3704,7 @@
         <v>32</v>
       </c>
       <c r="E92" s="4">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3696,13 +3713,13 @@
         <v>43</v>
       </c>
       <c r="J92" t="s">
+        <v>64</v>
+      </c>
+      <c r="K92" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="L92" t="s">
         <v>66</v>
-      </c>
-      <c r="L92" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3721,22 +3738,22 @@
         <v>32</v>
       </c>
       <c r="E93" s="4">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H93" t="s">
         <v>43</v>
       </c>
       <c r="J93" t="s">
+        <v>64</v>
+      </c>
+      <c r="K93" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="L93" t="s">
         <v>66</v>
-      </c>
-      <c r="L93" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3755,22 +3772,22 @@
         <v>32</v>
       </c>
       <c r="E94" s="4">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="G94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H94" t="s">
         <v>43</v>
       </c>
       <c r="J94" t="s">
+        <v>64</v>
+      </c>
+      <c r="K94" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="L94" t="s">
         <v>66</v>
-      </c>
-      <c r="L94" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3789,22 +3806,22 @@
         <v>32</v>
       </c>
       <c r="E95" s="4">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
         <v>43</v>
       </c>
       <c r="J95" t="s">
+        <v>64</v>
+      </c>
+      <c r="K95" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="L95" t="s">
         <v>66</v>
-      </c>
-      <c r="L95" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3823,22 +3840,22 @@
         <v>32</v>
       </c>
       <c r="E96" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H96" t="s">
         <v>43</v>
       </c>
       <c r="J96" t="s">
+        <v>64</v>
+      </c>
+      <c r="K96" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="L96" t="s">
         <v>66</v>
-      </c>
-      <c r="L96" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3857,22 +3874,22 @@
         <v>32</v>
       </c>
       <c r="E97" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
         <v>43</v>
       </c>
       <c r="J97" t="s">
+        <v>64</v>
+      </c>
+      <c r="K97" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="L97" t="s">
         <v>66</v>
-      </c>
-      <c r="L97" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3891,22 +3908,22 @@
         <v>32</v>
       </c>
       <c r="E98" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="s">
         <v>43</v>
       </c>
       <c r="J98" t="s">
+        <v>64</v>
+      </c>
+      <c r="K98" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="L98" t="s">
         <v>66</v>
-      </c>
-      <c r="L98" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3925,22 +3942,22 @@
         <v>32</v>
       </c>
       <c r="E99" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H99" t="s">
         <v>43</v>
       </c>
       <c r="J99" t="s">
+        <v>64</v>
+      </c>
+      <c r="K99" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="L99" t="s">
         <v>66</v>
-      </c>
-      <c r="L99" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3959,22 +3976,22 @@
         <v>32</v>
       </c>
       <c r="E100" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G100">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H100" t="s">
         <v>43</v>
       </c>
       <c r="J100" t="s">
+        <v>64</v>
+      </c>
+      <c r="K100" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="L100" t="s">
         <v>66</v>
-      </c>
-      <c r="L100" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3993,7 +4010,7 @@
         <v>32</v>
       </c>
       <c r="E101" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -4002,13 +4019,13 @@
         <v>43</v>
       </c>
       <c r="J101" t="s">
+        <v>64</v>
+      </c>
+      <c r="K101" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="L101" t="s">
         <v>66</v>
-      </c>
-      <c r="L101" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -4027,7 +4044,7 @@
         <v>32</v>
       </c>
       <c r="E102" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -4036,13 +4053,13 @@
         <v>43</v>
       </c>
       <c r="J102" t="s">
+        <v>64</v>
+      </c>
+      <c r="K102" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="L102" t="s">
         <v>66</v>
-      </c>
-      <c r="L102" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -4061,7 +4078,7 @@
         <v>32</v>
       </c>
       <c r="E103" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -4070,13 +4087,13 @@
         <v>43</v>
       </c>
       <c r="J103" t="s">
+        <v>64</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="L103" t="s">
         <v>66</v>
-      </c>
-      <c r="L103" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -4095,22 +4112,22 @@
         <v>32</v>
       </c>
       <c r="E104" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H104" t="s">
         <v>43</v>
       </c>
       <c r="J104" t="s">
+        <v>64</v>
+      </c>
+      <c r="K104" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="L104" t="s">
         <v>66</v>
-      </c>
-      <c r="L104" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -4129,22 +4146,22 @@
         <v>32</v>
       </c>
       <c r="E105" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H105" t="s">
         <v>43</v>
       </c>
       <c r="J105" t="s">
+        <v>64</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="L105" t="s">
         <v>66</v>
-      </c>
-      <c r="L105" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -4163,22 +4180,22 @@
         <v>32</v>
       </c>
       <c r="E106" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G106">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H106" t="s">
         <v>43</v>
       </c>
       <c r="J106" t="s">
+        <v>64</v>
+      </c>
+      <c r="K106" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="L106" t="s">
         <v>66</v>
-      </c>
-      <c r="L106" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -4197,22 +4214,22 @@
         <v>32</v>
       </c>
       <c r="E107" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G107">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H107" t="s">
         <v>43</v>
       </c>
       <c r="J107" t="s">
+        <v>64</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="L107" t="s">
         <v>66</v>
-      </c>
-      <c r="L107" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4231,22 +4248,22 @@
         <v>32</v>
       </c>
       <c r="E108" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G108">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H108" t="s">
         <v>43</v>
       </c>
       <c r="J108" t="s">
+        <v>64</v>
+      </c>
+      <c r="K108" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="L108" t="s">
         <v>66</v>
-      </c>
-      <c r="L108" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -4265,22 +4282,22 @@
         <v>32</v>
       </c>
       <c r="E109" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G109">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="H109" t="s">
         <v>43</v>
       </c>
       <c r="J109" t="s">
+        <v>64</v>
+      </c>
+      <c r="K109" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="L109" t="s">
         <v>66</v>
-      </c>
-      <c r="L109" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -4293,25 +4310,22 @@
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E110" s="4">
-        <v>2021</v>
+        <v>1991</v>
       </c>
       <c r="G110">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H110" t="s">
         <v>43</v>
       </c>
       <c r="J110" t="s">
-        <v>65</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="L110" t="s">
         <v>67</v>
@@ -4333,10 +4347,10 @@
         <v>32</v>
       </c>
       <c r="E111" s="4">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="s">
         <v>43</v>
@@ -4345,7 +4359,7 @@
         <v>53</v>
       </c>
       <c r="L111" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4364,10 +4378,10 @@
         <v>32</v>
       </c>
       <c r="E112" s="4">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H112" t="s">
         <v>43</v>
@@ -4376,7 +4390,7 @@
         <v>53</v>
       </c>
       <c r="L112" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -4395,10 +4409,10 @@
         <v>32</v>
       </c>
       <c r="E113" s="4">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="G113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H113" t="s">
         <v>43</v>
@@ -4407,7 +4421,7 @@
         <v>53</v>
       </c>
       <c r="L113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -4426,7 +4440,7 @@
         <v>32</v>
       </c>
       <c r="E114" s="4">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4438,7 +4452,7 @@
         <v>53</v>
       </c>
       <c r="L114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -4457,10 +4471,10 @@
         <v>32</v>
       </c>
       <c r="E115" s="4">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="s">
         <v>43</v>
@@ -4469,7 +4483,7 @@
         <v>53</v>
       </c>
       <c r="L115" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -4488,10 +4502,10 @@
         <v>32</v>
       </c>
       <c r="E116" s="4">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" t="s">
         <v>43</v>
@@ -4500,7 +4514,7 @@
         <v>53</v>
       </c>
       <c r="L116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -4519,7 +4533,7 @@
         <v>32</v>
       </c>
       <c r="E117" s="4">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4531,7 +4545,7 @@
         <v>53</v>
       </c>
       <c r="L117" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -4550,10 +4564,10 @@
         <v>32</v>
       </c>
       <c r="E118" s="4">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
         <v>43</v>
@@ -4562,7 +4576,7 @@
         <v>53</v>
       </c>
       <c r="L118" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4581,10 +4595,10 @@
         <v>32</v>
       </c>
       <c r="E119" s="4">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="G119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H119" t="s">
         <v>43</v>
@@ -4593,7 +4607,7 @@
         <v>53</v>
       </c>
       <c r="L119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4612,7 +4626,7 @@
         <v>32</v>
       </c>
       <c r="E120" s="4">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4624,7 +4638,7 @@
         <v>53</v>
       </c>
       <c r="L120" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -4643,7 +4657,7 @@
         <v>32</v>
       </c>
       <c r="E121" s="4">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4655,7 +4669,7 @@
         <v>53</v>
       </c>
       <c r="L121" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -4674,10 +4688,10 @@
         <v>32</v>
       </c>
       <c r="E122" s="4">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H122" t="s">
         <v>43</v>
@@ -4686,7 +4700,7 @@
         <v>53</v>
       </c>
       <c r="L122" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -4705,10 +4719,10 @@
         <v>32</v>
       </c>
       <c r="E123" s="4">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G123">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H123" t="s">
         <v>43</v>
@@ -4717,7 +4731,7 @@
         <v>53</v>
       </c>
       <c r="L123" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -4736,7 +4750,7 @@
         <v>32</v>
       </c>
       <c r="E124" s="4">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4748,7 +4762,7 @@
         <v>53</v>
       </c>
       <c r="L124" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -4767,10 +4781,10 @@
         <v>32</v>
       </c>
       <c r="E125" s="4">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H125" t="s">
         <v>43</v>
@@ -4779,7 +4793,7 @@
         <v>53</v>
       </c>
       <c r="L125" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -4798,10 +4812,10 @@
         <v>32</v>
       </c>
       <c r="E126" s="4">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
         <v>43</v>
@@ -4810,7 +4824,7 @@
         <v>53</v>
       </c>
       <c r="L126" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -4829,10 +4843,10 @@
         <v>32</v>
       </c>
       <c r="E127" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="s">
         <v>43</v>
@@ -4841,7 +4855,7 @@
         <v>53</v>
       </c>
       <c r="L127" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -4860,10 +4874,10 @@
         <v>32</v>
       </c>
       <c r="E128" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H128" t="s">
         <v>43</v>
@@ -4872,7 +4886,7 @@
         <v>53</v>
       </c>
       <c r="L128" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -4891,10 +4905,10 @@
         <v>32</v>
       </c>
       <c r="E129" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G129">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H129" t="s">
         <v>43</v>
@@ -4903,7 +4917,7 @@
         <v>53</v>
       </c>
       <c r="L129" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -4922,10 +4936,10 @@
         <v>32</v>
       </c>
       <c r="E130" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130" t="s">
         <v>43</v>
@@ -4934,7 +4948,7 @@
         <v>53</v>
       </c>
       <c r="L130" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -4953,10 +4967,10 @@
         <v>32</v>
       </c>
       <c r="E131" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H131" t="s">
         <v>43</v>
@@ -4965,7 +4979,7 @@
         <v>53</v>
       </c>
       <c r="L131" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -4984,10 +4998,10 @@
         <v>32</v>
       </c>
       <c r="E132" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H132" t="s">
         <v>43</v>
@@ -4996,7 +5010,7 @@
         <v>53</v>
       </c>
       <c r="L132" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -5015,7 +5029,7 @@
         <v>32</v>
       </c>
       <c r="E133" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -5027,7 +5041,7 @@
         <v>53</v>
       </c>
       <c r="L133" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -5046,7 +5060,7 @@
         <v>32</v>
       </c>
       <c r="E134" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -5058,7 +5072,7 @@
         <v>53</v>
       </c>
       <c r="L134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -5077,10 +5091,10 @@
         <v>32</v>
       </c>
       <c r="E135" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>43</v>
@@ -5089,16 +5103,16 @@
         <v>53</v>
       </c>
       <c r="L135" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A136:A199" si="4">$A$6</f>
         <v>CHE</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B136:B199" si="5">$B$6</f>
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C136" t="s">
@@ -5108,10 +5122,10 @@
         <v>32</v>
       </c>
       <c r="E136" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H136" t="s">
         <v>43</v>
@@ -5120,16 +5134,16 @@
         <v>53</v>
       </c>
       <c r="L136" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
-        <f t="shared" ref="A137:A200" si="4">$A$6</f>
+        <f t="shared" si="4"/>
         <v>CHE</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" ref="B137:B200" si="5">$B$6</f>
+        <f t="shared" si="5"/>
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C137" t="s">
@@ -5139,10 +5153,10 @@
         <v>32</v>
       </c>
       <c r="E137" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G137">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H137" t="s">
         <v>43</v>
@@ -5151,7 +5165,7 @@
         <v>53</v>
       </c>
       <c r="L137" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -5170,7 +5184,7 @@
         <v>32</v>
       </c>
       <c r="E138" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -5182,7 +5196,7 @@
         <v>53</v>
       </c>
       <c r="L138" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -5201,10 +5215,10 @@
         <v>32</v>
       </c>
       <c r="E139" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H139" t="s">
         <v>43</v>
@@ -5213,7 +5227,7 @@
         <v>53</v>
       </c>
       <c r="L139" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -5232,10 +5246,10 @@
         <v>32</v>
       </c>
       <c r="E140" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G140">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H140" t="s">
         <v>43</v>
@@ -5244,7 +5258,7 @@
         <v>53</v>
       </c>
       <c r="L140" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -5257,25 +5271,13 @@
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C141" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E141" s="4">
-        <v>2021</v>
-      </c>
-      <c r="G141">
-        <v>16</v>
-      </c>
-      <c r="H141" t="s">
-        <v>43</v>
-      </c>
-      <c r="J141" t="s">
-        <v>53</v>
-      </c>
-      <c r="L141" t="s">
-        <v>68</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -5294,7 +5296,7 @@
         <v>32</v>
       </c>
       <c r="E142" s="4">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -5313,7 +5315,7 @@
         <v>32</v>
       </c>
       <c r="E143" s="4">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -5332,10 +5334,19 @@
         <v>32</v>
       </c>
       <c r="E144" s="4">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1993</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144" t="s">
+        <v>68</v>
+      </c>
+      <c r="L144" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5351,19 +5362,10 @@
         <v>32</v>
       </c>
       <c r="E145" s="4">
-        <v>1993</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145" t="s">
-        <v>69</v>
-      </c>
-      <c r="L145" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5379,10 +5381,10 @@
         <v>32</v>
       </c>
       <c r="E146" s="4">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5398,10 +5400,10 @@
         <v>32</v>
       </c>
       <c r="E147" s="4">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5417,10 +5419,10 @@
         <v>32</v>
       </c>
       <c r="E148" s="4">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5436,10 +5438,10 @@
         <v>32</v>
       </c>
       <c r="E149" s="4">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5455,10 +5457,10 @@
         <v>32</v>
       </c>
       <c r="E150" s="4">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5474,10 +5476,10 @@
         <v>32</v>
       </c>
       <c r="E151" s="4">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5493,10 +5495,12 @@
         <v>32</v>
       </c>
       <c r="E152" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2001</v>
+      </c>
+      <c r="G152" s="6"/>
+      <c r="K152" s="2"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5512,12 +5516,10 @@
         <v>32</v>
       </c>
       <c r="E153" s="4">
-        <v>2001</v>
-      </c>
-      <c r="G153" s="6"/>
-      <c r="K153" s="2"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5533,10 +5535,10 @@
         <v>32</v>
       </c>
       <c r="E154" s="4">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5552,10 +5554,10 @@
         <v>32</v>
       </c>
       <c r="E155" s="4">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5571,10 +5573,10 @@
         <v>32</v>
       </c>
       <c r="E156" s="4">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5590,10 +5592,10 @@
         <v>32</v>
       </c>
       <c r="E157" s="4">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5609,10 +5611,10 @@
         <v>32</v>
       </c>
       <c r="E158" s="4">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5628,10 +5630,10 @@
         <v>32</v>
       </c>
       <c r="E159" s="4">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5647,7 +5649,7 @@
         <v>32</v>
       </c>
       <c r="E160" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -5666,7 +5668,7 @@
         <v>32</v>
       </c>
       <c r="E161" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -5685,7 +5687,7 @@
         <v>32</v>
       </c>
       <c r="E162" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -5704,7 +5706,7 @@
         <v>32</v>
       </c>
       <c r="E163" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -5723,7 +5725,7 @@
         <v>32</v>
       </c>
       <c r="E164" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -5742,7 +5744,7 @@
         <v>32</v>
       </c>
       <c r="E165" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -5761,7 +5763,7 @@
         <v>32</v>
       </c>
       <c r="E166" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -5780,7 +5782,7 @@
         <v>32</v>
       </c>
       <c r="E167" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -5799,7 +5801,7 @@
         <v>32</v>
       </c>
       <c r="E168" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -5818,7 +5820,7 @@
         <v>32</v>
       </c>
       <c r="E169" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -5837,7 +5839,7 @@
         <v>32</v>
       </c>
       <c r="E170" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -5856,7 +5858,7 @@
         <v>32</v>
       </c>
       <c r="E171" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -5875,7 +5877,7 @@
         <v>32</v>
       </c>
       <c r="E172" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -5888,13 +5890,13 @@
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C173" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E173" s="4">
-        <v>2021</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -5913,7 +5915,7 @@
         <v>32</v>
       </c>
       <c r="E174" s="4">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -5932,7 +5934,7 @@
         <v>32</v>
       </c>
       <c r="E175" s="4">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -5951,7 +5953,7 @@
         <v>32</v>
       </c>
       <c r="E176" s="4">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
@@ -5970,7 +5972,7 @@
         <v>32</v>
       </c>
       <c r="E177" s="4">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
@@ -5989,7 +5991,7 @@
         <v>32</v>
       </c>
       <c r="E178" s="4">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
@@ -6008,7 +6010,7 @@
         <v>32</v>
       </c>
       <c r="E179" s="4">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
@@ -6027,7 +6029,7 @@
         <v>32</v>
       </c>
       <c r="E180" s="4">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
@@ -6046,7 +6048,7 @@
         <v>32</v>
       </c>
       <c r="E181" s="4">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
@@ -6065,8 +6067,9 @@
         <v>32</v>
       </c>
       <c r="E182" s="4">
-        <v>1998</v>
-      </c>
+        <v>1999</v>
+      </c>
+      <c r="K182" s="2"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
@@ -6084,9 +6087,8 @@
         <v>32</v>
       </c>
       <c r="E183" s="4">
-        <v>1999</v>
-      </c>
-      <c r="K183" s="2"/>
+        <v>2000</v>
+      </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="str">
@@ -6104,7 +6106,7 @@
         <v>32</v>
       </c>
       <c r="E184" s="4">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
@@ -6123,7 +6125,7 @@
         <v>32</v>
       </c>
       <c r="E185" s="4">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
@@ -6142,7 +6144,7 @@
         <v>32</v>
       </c>
       <c r="E186" s="4">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
@@ -6161,7 +6163,7 @@
         <v>32</v>
       </c>
       <c r="E187" s="4">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -6180,7 +6182,7 @@
         <v>32</v>
       </c>
       <c r="E188" s="4">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -6199,7 +6201,7 @@
         <v>32</v>
       </c>
       <c r="E189" s="4">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
@@ -6218,7 +6220,7 @@
         <v>32</v>
       </c>
       <c r="E190" s="4">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
@@ -6237,7 +6239,7 @@
         <v>32</v>
       </c>
       <c r="E191" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
@@ -6256,7 +6258,7 @@
         <v>32</v>
       </c>
       <c r="E192" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -6275,7 +6277,22 @@
         <v>32</v>
       </c>
       <c r="E193" s="4">
-        <v>2009</v>
+        <v>2010</v>
+      </c>
+      <c r="G193">
+        <v>751930</v>
+      </c>
+      <c r="H193" t="s">
+        <v>70</v>
+      </c>
+      <c r="J193" t="s">
+        <v>53</v>
+      </c>
+      <c r="K193" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L193" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
@@ -6294,22 +6311,22 @@
         <v>32</v>
       </c>
       <c r="E194" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G194">
-        <v>751930</v>
+        <v>705930</v>
       </c>
       <c r="H194" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J194" t="s">
         <v>53</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L194" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -6328,22 +6345,22 @@
         <v>32</v>
       </c>
       <c r="E195" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G195">
-        <v>705930</v>
+        <v>669590</v>
       </c>
       <c r="H195" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J195" t="s">
         <v>53</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L195" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -6362,22 +6379,22 @@
         <v>32</v>
       </c>
       <c r="E196" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G196">
-        <v>669590</v>
+        <v>659700</v>
       </c>
       <c r="H196" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J196" t="s">
         <v>53</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L196" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -6396,22 +6413,22 @@
         <v>32</v>
       </c>
       <c r="E197" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G197">
-        <v>659700</v>
+        <v>646130</v>
       </c>
       <c r="H197" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J197" t="s">
         <v>53</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L197" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -6430,22 +6447,22 @@
         <v>32</v>
       </c>
       <c r="E198" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G198">
-        <v>646130</v>
+        <v>602430</v>
       </c>
       <c r="H198" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J198" t="s">
         <v>53</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L198" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -6464,31 +6481,31 @@
         <v>32</v>
       </c>
       <c r="E199" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G199">
-        <v>602430</v>
+        <v>584720</v>
       </c>
       <c r="H199" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J199" t="s">
         <v>53</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L199" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A200:A262" si="6">$A$6</f>
         <v>CHE</v>
       </c>
       <c r="B200" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B200:B262" si="7">$B$6</f>
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C200" t="s">
@@ -6498,31 +6515,31 @@
         <v>32</v>
       </c>
       <c r="E200" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G200">
-        <v>584720</v>
+        <v>570000</v>
       </c>
       <c r="H200" t="s">
+        <v>70</v>
+      </c>
+      <c r="J200" t="s">
         <v>71</v>
       </c>
-      <c r="J200" t="s">
-        <v>53</v>
-      </c>
       <c r="K200" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L200" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="str">
-        <f t="shared" ref="A201:A263" si="6">$A$6</f>
+        <f t="shared" si="6"/>
         <v>CHE</v>
       </c>
       <c r="B201" t="str">
-        <f t="shared" ref="B201:B263" si="7">$B$6</f>
+        <f t="shared" si="7"/>
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C201" t="s">
@@ -6532,22 +6549,7 @@
         <v>32</v>
       </c>
       <c r="E201" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G201">
-        <v>570000</v>
-      </c>
-      <c r="H201" t="s">
-        <v>71</v>
-      </c>
-      <c r="J201" t="s">
-        <v>72</v>
-      </c>
-      <c r="K201" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L201" t="s">
-        <v>73</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
@@ -6566,7 +6568,7 @@
         <v>32</v>
       </c>
       <c r="E202" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -6585,7 +6587,7 @@
         <v>32</v>
       </c>
       <c r="E203" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -6604,7 +6606,7 @@
         <v>32</v>
       </c>
       <c r="E204" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
@@ -6617,13 +6619,13 @@
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C205" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E205" s="4">
-        <v>2021</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
@@ -6642,7 +6644,7 @@
         <v>32</v>
       </c>
       <c r="E206" s="4">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
@@ -6661,7 +6663,7 @@
         <v>32</v>
       </c>
       <c r="E207" s="4">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -6680,7 +6682,7 @@
         <v>32</v>
       </c>
       <c r="E208" s="4">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
@@ -6699,7 +6701,7 @@
         <v>32</v>
       </c>
       <c r="E209" s="4">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
@@ -6718,7 +6720,7 @@
         <v>32</v>
       </c>
       <c r="E210" s="4">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
@@ -6737,7 +6739,7 @@
         <v>32</v>
       </c>
       <c r="E211" s="4">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
@@ -6756,8 +6758,9 @@
         <v>32</v>
       </c>
       <c r="E212" s="4">
-        <v>1996</v>
-      </c>
+        <v>1997</v>
+      </c>
+      <c r="K212" s="2"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="str">
@@ -6775,9 +6778,8 @@
         <v>32</v>
       </c>
       <c r="E213" s="4">
-        <v>1997</v>
-      </c>
-      <c r="K213" s="2"/>
+        <v>1998</v>
+      </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="str">
@@ -6795,7 +6797,7 @@
         <v>32</v>
       </c>
       <c r="E214" s="4">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
@@ -6814,7 +6816,7 @@
         <v>32</v>
       </c>
       <c r="E215" s="4">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
@@ -6833,7 +6835,7 @@
         <v>32</v>
       </c>
       <c r="E216" s="4">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
@@ -6852,7 +6854,7 @@
         <v>32</v>
       </c>
       <c r="E217" s="4">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
@@ -6871,7 +6873,7 @@
         <v>32</v>
       </c>
       <c r="E218" s="4">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
@@ -6890,7 +6892,7 @@
         <v>32</v>
       </c>
       <c r="E219" s="4">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
@@ -6909,7 +6911,7 @@
         <v>32</v>
       </c>
       <c r="E220" s="4">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
@@ -6928,7 +6930,7 @@
         <v>32</v>
       </c>
       <c r="E221" s="4">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
@@ -6947,7 +6949,7 @@
         <v>32</v>
       </c>
       <c r="E222" s="4">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
@@ -6966,7 +6968,7 @@
         <v>32</v>
       </c>
       <c r="E223" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
@@ -6985,7 +6987,7 @@
         <v>32</v>
       </c>
       <c r="E224" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -7004,7 +7006,7 @@
         <v>32</v>
       </c>
       <c r="E225" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -7023,7 +7025,7 @@
         <v>32</v>
       </c>
       <c r="E226" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -7042,7 +7044,7 @@
         <v>32</v>
       </c>
       <c r="E227" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -7061,7 +7063,7 @@
         <v>32</v>
       </c>
       <c r="E228" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -7080,7 +7082,7 @@
         <v>32</v>
       </c>
       <c r="E229" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -7099,7 +7101,7 @@
         <v>32</v>
       </c>
       <c r="E230" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -7118,7 +7120,7 @@
         <v>32</v>
       </c>
       <c r="E231" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
@@ -7137,7 +7139,7 @@
         <v>32</v>
       </c>
       <c r="E232" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
@@ -7156,7 +7158,7 @@
         <v>32</v>
       </c>
       <c r="E233" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
@@ -7175,7 +7177,7 @@
         <v>32</v>
       </c>
       <c r="E234" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
@@ -7194,7 +7196,22 @@
         <v>32</v>
       </c>
       <c r="E235" s="4">
-        <v>2019</v>
+        <v>2020</v>
+      </c>
+      <c r="G235">
+        <v>192000</v>
+      </c>
+      <c r="H235" t="s">
+        <v>76</v>
+      </c>
+      <c r="J235" t="s">
+        <v>73</v>
+      </c>
+      <c r="K235" t="s">
+        <v>74</v>
+      </c>
+      <c r="L235" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
@@ -7213,22 +7230,7 @@
         <v>32</v>
       </c>
       <c r="E236" s="4">
-        <v>2020</v>
-      </c>
-      <c r="G236">
-        <v>192000</v>
-      </c>
-      <c r="H236" t="s">
-        <v>77</v>
-      </c>
-      <c r="J236" t="s">
-        <v>74</v>
-      </c>
-      <c r="K236" t="s">
-        <v>75</v>
-      </c>
-      <c r="L236" t="s">
-        <v>76</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
@@ -7241,13 +7243,21 @@
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C237" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E237" s="4">
-        <v>2021</v>
+        <v>1991</v>
+      </c>
+      <c r="G237">
+        <f t="shared" ref="G237:H267" si="8">G110</f>
+        <v>0</v>
+      </c>
+      <c r="H237" t="str">
+        <f t="shared" si="8"/>
+        <v>units</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
@@ -7266,11 +7276,11 @@
         <v>32</v>
       </c>
       <c r="E238" s="4">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="G238">
-        <f t="shared" ref="G238:H268" si="8">G111</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="H238" t="str">
         <f t="shared" si="8"/>
@@ -7293,11 +7303,11 @@
         <v>32</v>
       </c>
       <c r="E239" s="4">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="G239">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H239" t="str">
         <f t="shared" si="8"/>
@@ -7320,11 +7330,11 @@
         <v>32</v>
       </c>
       <c r="E240" s="4">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="G240">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H240" t="str">
         <f t="shared" si="8"/>
@@ -7347,7 +7357,7 @@
         <v>32</v>
       </c>
       <c r="E241" s="4">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="G241">
         <f t="shared" si="8"/>
@@ -7374,11 +7384,11 @@
         <v>32</v>
       </c>
       <c r="E242" s="4">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="G242">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242" t="str">
         <f t="shared" si="8"/>
@@ -7401,11 +7411,11 @@
         <v>32</v>
       </c>
       <c r="E243" s="4">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="G243">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243" t="str">
         <f t="shared" si="8"/>
@@ -7428,7 +7438,7 @@
         <v>32</v>
       </c>
       <c r="E244" s="4">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="G244">
         <f t="shared" si="8"/>
@@ -7455,11 +7465,11 @@
         <v>32</v>
       </c>
       <c r="E245" s="4">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="G245">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H245" t="str">
         <f t="shared" si="8"/>
@@ -7482,11 +7492,11 @@
         <v>32</v>
       </c>
       <c r="E246" s="4">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="G246">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H246" t="str">
         <f t="shared" si="8"/>
@@ -7509,7 +7519,7 @@
         <v>32</v>
       </c>
       <c r="E247" s="4">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="G247">
         <f t="shared" si="8"/>
@@ -7536,7 +7546,7 @@
         <v>32</v>
       </c>
       <c r="E248" s="4">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="G248">
         <f t="shared" si="8"/>
@@ -7563,11 +7573,11 @@
         <v>32</v>
       </c>
       <c r="E249" s="4">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="G249">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H249" t="str">
         <f t="shared" si="8"/>
@@ -7590,11 +7600,11 @@
         <v>32</v>
       </c>
       <c r="E250" s="4">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G250">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H250" t="str">
         <f t="shared" si="8"/>
@@ -7617,7 +7627,7 @@
         <v>32</v>
       </c>
       <c r="E251" s="4">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="G251">
         <f t="shared" si="8"/>
@@ -7644,11 +7654,11 @@
         <v>32</v>
       </c>
       <c r="E252" s="4">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="G252">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H252" t="str">
         <f t="shared" si="8"/>
@@ -7671,11 +7681,11 @@
         <v>32</v>
       </c>
       <c r="E253" s="4">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="G253">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H253" t="str">
         <f t="shared" si="8"/>
@@ -7698,11 +7708,11 @@
         <v>32</v>
       </c>
       <c r="E254" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="G254">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254" t="str">
         <f t="shared" si="8"/>
@@ -7725,11 +7735,11 @@
         <v>32</v>
       </c>
       <c r="E255" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G255">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H255" t="str">
         <f t="shared" si="8"/>
@@ -7752,11 +7762,11 @@
         <v>32</v>
       </c>
       <c r="E256" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G256">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H256" t="str">
         <f t="shared" si="8"/>
@@ -7779,11 +7789,11 @@
         <v>32</v>
       </c>
       <c r="E257" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G257">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257" t="str">
         <f t="shared" si="8"/>
@@ -7806,11 +7816,11 @@
         <v>32</v>
       </c>
       <c r="E258" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G258">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H258" t="str">
         <f t="shared" si="8"/>
@@ -7833,11 +7843,11 @@
         <v>32</v>
       </c>
       <c r="E259" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G259">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H259" t="str">
         <f t="shared" si="8"/>
@@ -7860,7 +7870,7 @@
         <v>32</v>
       </c>
       <c r="E260" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G260">
         <f t="shared" si="8"/>
@@ -7887,7 +7897,7 @@
         <v>32</v>
       </c>
       <c r="E261" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G261">
         <f t="shared" si="8"/>
@@ -7914,11 +7924,11 @@
         <v>32</v>
       </c>
       <c r="E262" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G262">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262" t="str">
         <f t="shared" si="8"/>
@@ -7927,11 +7937,11 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A263:A326" si="9">$A$6</f>
         <v>CHE</v>
       </c>
       <c r="B263" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B263:B326" si="10">$B$6</f>
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C263" t="s">
@@ -7941,11 +7951,11 @@
         <v>32</v>
       </c>
       <c r="E263" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G263">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H263" t="str">
         <f t="shared" si="8"/>
@@ -7954,11 +7964,11 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="str">
-        <f t="shared" ref="A264:A327" si="9">$A$6</f>
+        <f t="shared" si="9"/>
         <v>CHE</v>
       </c>
       <c r="B264" t="str">
-        <f t="shared" ref="B264:B327" si="10">$B$6</f>
+        <f t="shared" si="10"/>
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C264" t="s">
@@ -7968,11 +7978,11 @@
         <v>32</v>
       </c>
       <c r="E264" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G264">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H264" t="str">
         <f t="shared" si="8"/>
@@ -7995,7 +8005,7 @@
         <v>32</v>
       </c>
       <c r="E265" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G265">
         <f t="shared" si="8"/>
@@ -8022,11 +8032,11 @@
         <v>32</v>
       </c>
       <c r="E266" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G266">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H266" t="str">
         <f t="shared" si="8"/>
@@ -8049,11 +8059,11 @@
         <v>32</v>
       </c>
       <c r="E267" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G267">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H267" t="str">
         <f t="shared" si="8"/>
@@ -8070,21 +8080,20 @@
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C268" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E268" s="4">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="G268">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="H268" t="str">
-        <f t="shared" si="8"/>
-        <v>units</v>
+        <v>1</v>
+      </c>
+      <c r="K268" s="2"/>
+      <c r="L268" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -8103,7 +8112,7 @@
         <v>32</v>
       </c>
       <c r="E269" s="4">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -8129,7 +8138,7 @@
         <v>32</v>
       </c>
       <c r="E270" s="4">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -8155,7 +8164,7 @@
         <v>32</v>
       </c>
       <c r="E271" s="4">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -8181,7 +8190,7 @@
         <v>32</v>
       </c>
       <c r="E272" s="4">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -8207,7 +8216,7 @@
         <v>32</v>
       </c>
       <c r="E273" s="4">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -8233,7 +8242,7 @@
         <v>32</v>
       </c>
       <c r="E274" s="4">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -8259,7 +8268,7 @@
         <v>32</v>
       </c>
       <c r="E275" s="4">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -8285,7 +8294,7 @@
         <v>32</v>
       </c>
       <c r="E276" s="4">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -8311,7 +8320,7 @@
         <v>32</v>
       </c>
       <c r="E277" s="4">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -8337,7 +8346,7 @@
         <v>32</v>
       </c>
       <c r="E278" s="4">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -8363,7 +8372,7 @@
         <v>32</v>
       </c>
       <c r="E279" s="4">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -8389,7 +8398,7 @@
         <v>32</v>
       </c>
       <c r="E280" s="4">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -8415,12 +8424,11 @@
         <v>32</v>
       </c>
       <c r="E281" s="4">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="G281">
         <v>1</v>
       </c>
-      <c r="K281" s="2"/>
       <c r="L281" t="s">
         <v>46</v>
       </c>
@@ -8441,7 +8449,7 @@
         <v>32</v>
       </c>
       <c r="E282" s="4">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -8466,7 +8474,7 @@
         <v>32</v>
       </c>
       <c r="E283" s="4">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -8491,7 +8499,7 @@
         <v>32</v>
       </c>
       <c r="E284" s="4">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -8516,7 +8524,7 @@
         <v>32</v>
       </c>
       <c r="E285" s="4">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -8541,7 +8549,7 @@
         <v>32</v>
       </c>
       <c r="E286" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="G286">
         <v>1</v>
@@ -8566,7 +8574,7 @@
         <v>32</v>
       </c>
       <c r="E287" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G287">
         <v>1</v>
@@ -8591,7 +8599,7 @@
         <v>32</v>
       </c>
       <c r="E288" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -8616,7 +8624,7 @@
         <v>32</v>
       </c>
       <c r="E289" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G289">
         <v>1</v>
@@ -8641,7 +8649,7 @@
         <v>32</v>
       </c>
       <c r="E290" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G290">
         <v>1</v>
@@ -8666,7 +8674,7 @@
         <v>32</v>
       </c>
       <c r="E291" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -8691,7 +8699,7 @@
         <v>32</v>
       </c>
       <c r="E292" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G292">
         <v>1</v>
@@ -8716,7 +8724,7 @@
         <v>32</v>
       </c>
       <c r="E293" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -8741,7 +8749,7 @@
         <v>32</v>
       </c>
       <c r="E294" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -8766,7 +8774,7 @@
         <v>32</v>
       </c>
       <c r="E295" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G295">
         <v>1</v>
@@ -8791,7 +8799,7 @@
         <v>32</v>
       </c>
       <c r="E296" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G296">
         <v>1</v>
@@ -8816,7 +8824,7 @@
         <v>32</v>
       </c>
       <c r="E297" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -8841,7 +8849,7 @@
         <v>32</v>
       </c>
       <c r="E298" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G298">
         <v>1</v>
@@ -8866,7 +8874,7 @@
         <v>32</v>
       </c>
       <c r="E299" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G299">
         <v>1</v>
@@ -8885,16 +8893,16 @@
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C300" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E300" s="4">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="G300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L300" t="s">
         <v>46</v>
@@ -8916,7 +8924,7 @@
         <v>32</v>
       </c>
       <c r="E301" s="4">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="G301">
         <v>0</v>
@@ -8941,7 +8949,7 @@
         <v>32</v>
       </c>
       <c r="E302" s="4">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="G302">
         <v>0</v>
@@ -8966,7 +8974,7 @@
         <v>32</v>
       </c>
       <c r="E303" s="4">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="G303">
         <v>0</v>
@@ -8991,7 +8999,7 @@
         <v>32</v>
       </c>
       <c r="E304" s="4">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -9016,7 +9024,7 @@
         <v>32</v>
       </c>
       <c r="E305" s="4">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="G305">
         <v>0</v>
@@ -9041,7 +9049,7 @@
         <v>32</v>
       </c>
       <c r="E306" s="4">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="G306">
         <v>0</v>
@@ -9066,7 +9074,7 @@
         <v>32</v>
       </c>
       <c r="E307" s="4">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="G307">
         <v>0</v>
@@ -9091,7 +9099,7 @@
         <v>32</v>
       </c>
       <c r="E308" s="4">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="G308">
         <v>0</v>
@@ -9116,7 +9124,7 @@
         <v>32</v>
       </c>
       <c r="E309" s="4">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -9141,7 +9149,7 @@
         <v>32</v>
       </c>
       <c r="E310" s="4">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="G310">
         <v>0</v>
@@ -9166,7 +9174,7 @@
         <v>32</v>
       </c>
       <c r="E311" s="4">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="G311">
         <v>0</v>
@@ -9191,7 +9199,7 @@
         <v>32</v>
       </c>
       <c r="E312" s="4">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="G312">
         <v>0</v>
@@ -9216,7 +9224,7 @@
         <v>32</v>
       </c>
       <c r="E313" s="4">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="G313">
         <v>0</v>
@@ -9241,7 +9249,7 @@
         <v>32</v>
       </c>
       <c r="E314" s="4">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -9266,7 +9274,7 @@
         <v>32</v>
       </c>
       <c r="E315" s="4">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -9291,7 +9299,7 @@
         <v>32</v>
       </c>
       <c r="E316" s="4">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="G316">
         <v>0</v>
@@ -9316,7 +9324,7 @@
         <v>32</v>
       </c>
       <c r="E317" s="4">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="G317">
         <v>0</v>
@@ -9341,7 +9349,7 @@
         <v>32</v>
       </c>
       <c r="E318" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -9366,7 +9374,7 @@
         <v>32</v>
       </c>
       <c r="E319" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G319">
         <v>0</v>
@@ -9391,7 +9399,7 @@
         <v>32</v>
       </c>
       <c r="E320" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G320">
         <v>0</v>
@@ -9416,7 +9424,7 @@
         <v>32</v>
       </c>
       <c r="E321" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G321">
         <v>0</v>
@@ -9441,7 +9449,7 @@
         <v>32</v>
       </c>
       <c r="E322" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G322">
         <v>0</v>
@@ -9466,7 +9474,7 @@
         <v>32</v>
       </c>
       <c r="E323" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G323">
         <v>0</v>
@@ -9491,7 +9499,7 @@
         <v>32</v>
       </c>
       <c r="E324" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G324">
         <v>0</v>
@@ -9516,7 +9524,7 @@
         <v>32</v>
       </c>
       <c r="E325" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -9541,7 +9549,7 @@
         <v>32</v>
       </c>
       <c r="E326" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -9552,11 +9560,11 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="A327:A390" si="11">$A$6</f>
         <v>CHE</v>
       </c>
       <c r="B327" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="B327:B390" si="12">$B$6</f>
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C327" t="s">
@@ -9566,7 +9574,7 @@
         <v>32</v>
       </c>
       <c r="E327" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G327">
         <v>0</v>
@@ -9577,11 +9585,11 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" t="str">
-        <f t="shared" ref="A328:A391" si="11">$A$6</f>
+        <f t="shared" si="11"/>
         <v>CHE</v>
       </c>
       <c r="B328" t="str">
-        <f t="shared" ref="B328:B391" si="12">$B$6</f>
+        <f t="shared" si="12"/>
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C328" t="s">
@@ -9591,7 +9599,7 @@
         <v>32</v>
       </c>
       <c r="E328" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G328">
         <v>0</v>
@@ -9616,7 +9624,7 @@
         <v>32</v>
       </c>
       <c r="E329" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G329">
         <v>0</v>
@@ -9641,7 +9649,7 @@
         <v>32</v>
       </c>
       <c r="E330" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G330">
         <v>0</v>
@@ -9666,7 +9674,7 @@
         <v>32</v>
       </c>
       <c r="E331" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G331">
         <v>0</v>
@@ -9685,19 +9693,17 @@
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C332" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E332" s="4">
-        <v>2021</v>
-      </c>
-      <c r="G332">
-        <v>0</v>
-      </c>
-      <c r="L332" t="s">
-        <v>46</v>
+        <v>1990</v>
+      </c>
+      <c r="F332" t="str">
+        <f>F$8</f>
+        <v>elecsupply</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -9716,12 +9722,13 @@
         <v>41</v>
       </c>
       <c r="E333" s="4">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="F333" t="str">
-        <f>F$8</f>
+        <f t="shared" ref="F333:F363" si="13">F$8</f>
         <v>elecsupply</v>
       </c>
+      <c r="K333" s="2"/>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" t="str">
@@ -9739,10 +9746,10 @@
         <v>41</v>
       </c>
       <c r="E334" s="4">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="F334" t="str">
-        <f t="shared" ref="F334:F364" si="13">F$8</f>
+        <f t="shared" si="13"/>
         <v>elecsupply</v>
       </c>
       <c r="K334" s="2"/>
@@ -9763,7 +9770,7 @@
         <v>41</v>
       </c>
       <c r="E335" s="4">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="F335" t="str">
         <f t="shared" si="13"/>
@@ -9787,7 +9794,7 @@
         <v>41</v>
       </c>
       <c r="E336" s="4">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="F336" t="str">
         <f t="shared" si="13"/>
@@ -9811,7 +9818,7 @@
         <v>41</v>
       </c>
       <c r="E337" s="4">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="F337" t="str">
         <f t="shared" si="13"/>
@@ -9835,7 +9842,7 @@
         <v>41</v>
       </c>
       <c r="E338" s="4">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="F338" t="str">
         <f t="shared" si="13"/>
@@ -9859,7 +9866,7 @@
         <v>41</v>
       </c>
       <c r="E339" s="4">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F339" t="str">
         <f t="shared" si="13"/>
@@ -9883,7 +9890,7 @@
         <v>41</v>
       </c>
       <c r="E340" s="4">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F340" t="str">
         <f t="shared" si="13"/>
@@ -9907,7 +9914,7 @@
         <v>41</v>
       </c>
       <c r="E341" s="4">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="F341" t="str">
         <f t="shared" si="13"/>
@@ -9931,7 +9938,7 @@
         <v>41</v>
       </c>
       <c r="E342" s="4">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="F342" t="str">
         <f t="shared" si="13"/>
@@ -9955,7 +9962,7 @@
         <v>41</v>
       </c>
       <c r="E343" s="4">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F343" t="str">
         <f t="shared" si="13"/>
@@ -9979,7 +9986,7 @@
         <v>41</v>
       </c>
       <c r="E344" s="4">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="F344" t="str">
         <f t="shared" si="13"/>
@@ -10003,7 +10010,7 @@
         <v>41</v>
       </c>
       <c r="E345" s="4">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="F345" t="str">
         <f t="shared" si="13"/>
@@ -10027,7 +10034,7 @@
         <v>41</v>
       </c>
       <c r="E346" s="4">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F346" t="str">
         <f t="shared" si="13"/>
@@ -10051,7 +10058,7 @@
         <v>41</v>
       </c>
       <c r="E347" s="4">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F347" t="str">
         <f t="shared" si="13"/>
@@ -10075,7 +10082,7 @@
         <v>41</v>
       </c>
       <c r="E348" s="4">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F348" t="str">
         <f t="shared" si="13"/>
@@ -10099,7 +10106,7 @@
         <v>41</v>
       </c>
       <c r="E349" s="4">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F349" t="str">
         <f t="shared" si="13"/>
@@ -10123,7 +10130,7 @@
         <v>41</v>
       </c>
       <c r="E350" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F350" t="str">
         <f t="shared" si="13"/>
@@ -10147,7 +10154,7 @@
         <v>41</v>
       </c>
       <c r="E351" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F351" t="str">
         <f t="shared" si="13"/>
@@ -10171,7 +10178,7 @@
         <v>41</v>
       </c>
       <c r="E352" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F352" t="str">
         <f t="shared" si="13"/>
@@ -10195,7 +10202,7 @@
         <v>41</v>
       </c>
       <c r="E353" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F353" t="str">
         <f t="shared" si="13"/>
@@ -10219,7 +10226,7 @@
         <v>41</v>
       </c>
       <c r="E354" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F354" t="str">
         <f t="shared" si="13"/>
@@ -10243,7 +10250,7 @@
         <v>41</v>
       </c>
       <c r="E355" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F355" t="str">
         <f t="shared" si="13"/>
@@ -10267,7 +10274,7 @@
         <v>41</v>
       </c>
       <c r="E356" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F356" t="str">
         <f t="shared" si="13"/>
@@ -10291,7 +10298,7 @@
         <v>41</v>
       </c>
       <c r="E357" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F357" t="str">
         <f t="shared" si="13"/>
@@ -10315,7 +10322,7 @@
         <v>41</v>
       </c>
       <c r="E358" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F358" t="str">
         <f t="shared" si="13"/>
@@ -10339,13 +10346,27 @@
         <v>41</v>
       </c>
       <c r="E359" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F359" t="str">
         <f t="shared" si="13"/>
         <v>elecsupply</v>
       </c>
-      <c r="K359" s="2"/>
+      <c r="G359">
+        <v>8.0459999999999999E-7</v>
+      </c>
+      <c r="H359" t="s">
+        <v>78</v>
+      </c>
+      <c r="J359" t="s">
+        <v>55</v>
+      </c>
+      <c r="K359" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L359" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" t="str">
@@ -10363,27 +10384,13 @@
         <v>41</v>
       </c>
       <c r="E360" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F360" t="str">
         <f t="shared" si="13"/>
         <v>elecsupply</v>
       </c>
-      <c r="G360">
-        <v>8.0459999999999999E-7</v>
-      </c>
-      <c r="H360" t="s">
-        <v>79</v>
-      </c>
-      <c r="J360" t="s">
-        <v>56</v>
-      </c>
-      <c r="K360" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L360" t="s">
-        <v>78</v>
-      </c>
+      <c r="K360" s="2"/>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" t="str">
@@ -10401,7 +10408,7 @@
         <v>41</v>
       </c>
       <c r="E361" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F361" t="str">
         <f t="shared" si="13"/>
@@ -10425,7 +10432,7 @@
         <v>41</v>
       </c>
       <c r="E362" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F362" t="str">
         <f t="shared" si="13"/>
@@ -10449,7 +10456,7 @@
         <v>41</v>
       </c>
       <c r="E363" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F363" t="str">
         <f t="shared" si="13"/>
@@ -10467,17 +10474,16 @@
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C364" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E364" s="4">
-        <v>2021</v>
-      </c>
-      <c r="F364" t="str">
-        <f t="shared" si="13"/>
-        <v>elecsupply</v>
+        <v>1990</v>
+      </c>
+      <c r="F364" t="s">
+        <v>50</v>
       </c>
       <c r="K364" s="2"/>
     </row>
@@ -10497,7 +10503,7 @@
         <v>41</v>
       </c>
       <c r="E365" s="4">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="F365" t="s">
         <v>50</v>
@@ -10520,7 +10526,7 @@
         <v>41</v>
       </c>
       <c r="E366" s="4">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="F366" t="s">
         <v>50</v>
@@ -10543,7 +10549,7 @@
         <v>41</v>
       </c>
       <c r="E367" s="4">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="F367" t="s">
         <v>50</v>
@@ -10566,7 +10572,7 @@
         <v>41</v>
       </c>
       <c r="E368" s="4">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="F368" t="s">
         <v>50</v>
@@ -10589,7 +10595,7 @@
         <v>41</v>
       </c>
       <c r="E369" s="4">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="F369" t="s">
         <v>50</v>
@@ -10612,7 +10618,7 @@
         <v>41</v>
       </c>
       <c r="E370" s="4">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="F370" t="s">
         <v>50</v>
@@ -10635,12 +10641,26 @@
         <v>41</v>
       </c>
       <c r="E371" s="4">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F371" t="s">
         <v>50</v>
       </c>
-      <c r="K371" s="2"/>
+      <c r="G371">
+        <v>12.892920342028125</v>
+      </c>
+      <c r="H371" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J371" t="s">
+        <v>80</v>
+      </c>
+      <c r="K371" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L371" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" t="str">
@@ -10658,25 +10678,25 @@
         <v>41</v>
       </c>
       <c r="E372" s="4">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F372" t="s">
         <v>50</v>
       </c>
       <c r="G372">
-        <v>12.892920342028125</v>
+        <v>12.480647119404717</v>
       </c>
       <c r="H372" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J372" t="s">
+        <v>80</v>
+      </c>
+      <c r="K372" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L372" t="s">
         <v>81</v>
-      </c>
-      <c r="K372" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L372" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
@@ -10695,25 +10715,25 @@
         <v>41</v>
       </c>
       <c r="E373" s="4">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="F373" t="s">
         <v>50</v>
       </c>
       <c r="G373">
-        <v>12.480647119404717</v>
+        <v>12.343507748628877</v>
       </c>
       <c r="H373" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J373" t="s">
+        <v>80</v>
+      </c>
+      <c r="K373" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L373" t="s">
         <v>81</v>
-      </c>
-      <c r="K373" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L373" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
@@ -10732,25 +10752,25 @@
         <v>41</v>
       </c>
       <c r="E374" s="4">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="F374" t="s">
         <v>50</v>
       </c>
       <c r="G374">
-        <v>12.343507748628877</v>
+        <v>12.334430158565448</v>
       </c>
       <c r="H374" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J374" t="s">
+        <v>80</v>
+      </c>
+      <c r="K374" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L374" t="s">
         <v>81</v>
-      </c>
-      <c r="K374" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L374" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
@@ -10769,25 +10789,25 @@
         <v>41</v>
       </c>
       <c r="E375" s="4">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F375" t="s">
         <v>50</v>
       </c>
       <c r="G375">
-        <v>12.334430158565448</v>
+        <v>12.327709046357086</v>
       </c>
       <c r="H375" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J375" t="s">
+        <v>80</v>
+      </c>
+      <c r="K375" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L375" t="s">
         <v>81</v>
-      </c>
-      <c r="K375" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L375" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
@@ -10806,25 +10826,25 @@
         <v>41</v>
       </c>
       <c r="E376" s="4">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="F376" t="s">
         <v>50</v>
       </c>
       <c r="G376">
-        <v>12.327709046357086</v>
+        <v>12.239624778211674</v>
       </c>
       <c r="H376" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J376" t="s">
+        <v>80</v>
+      </c>
+      <c r="K376" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L376" t="s">
         <v>81</v>
-      </c>
-      <c r="K376" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L376" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
@@ -10843,25 +10863,25 @@
         <v>41</v>
       </c>
       <c r="E377" s="4">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="F377" t="s">
         <v>50</v>
       </c>
       <c r="G377">
-        <v>12.239624778211674</v>
+        <v>12.163790840106042</v>
       </c>
       <c r="H377" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J377" t="s">
+        <v>80</v>
+      </c>
+      <c r="K377" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L377" t="s">
         <v>81</v>
-      </c>
-      <c r="K377" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L377" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
@@ -10880,25 +10900,25 @@
         <v>41</v>
       </c>
       <c r="E378" s="4">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F378" t="s">
         <v>50</v>
       </c>
       <c r="G378">
-        <v>12.163790840106042</v>
+        <v>12.118962413188155</v>
       </c>
       <c r="H378" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J378" t="s">
+        <v>80</v>
+      </c>
+      <c r="K378" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L378" t="s">
         <v>81</v>
-      </c>
-      <c r="K378" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L378" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
@@ -10917,25 +10937,25 @@
         <v>41</v>
       </c>
       <c r="E379" s="4">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F379" t="s">
         <v>50</v>
       </c>
       <c r="G379">
-        <v>12.118962413188155</v>
+        <v>14.267666963331084</v>
       </c>
       <c r="H379" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J379" t="s">
+        <v>80</v>
+      </c>
+      <c r="K379" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L379" t="s">
         <v>81</v>
-      </c>
-      <c r="K379" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L379" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
@@ -10954,25 +10974,25 @@
         <v>41</v>
       </c>
       <c r="E380" s="4">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F380" t="s">
         <v>50</v>
       </c>
       <c r="G380">
-        <v>14.267666963331084</v>
+        <v>14.442759666413949</v>
       </c>
       <c r="H380" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J380" t="s">
+        <v>80</v>
+      </c>
+      <c r="K380" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L380" t="s">
         <v>81</v>
-      </c>
-      <c r="K380" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L380" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
@@ -10991,25 +11011,25 @@
         <v>41</v>
       </c>
       <c r="E381" s="4">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F381" t="s">
         <v>50</v>
       </c>
       <c r="G381">
-        <v>14.442759666413949</v>
+        <v>14.756921105546322</v>
       </c>
       <c r="H381" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J381" t="s">
+        <v>80</v>
+      </c>
+      <c r="K381" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L381" t="s">
         <v>81</v>
-      </c>
-      <c r="K381" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L381" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
@@ -11028,25 +11048,25 @@
         <v>41</v>
       </c>
       <c r="E382" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F382" t="s">
         <v>50</v>
       </c>
       <c r="G382">
-        <v>14.756921105546322</v>
+        <v>14.030701754385966</v>
       </c>
       <c r="H382" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J382" t="s">
+        <v>80</v>
+      </c>
+      <c r="K382" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L382" t="s">
         <v>81</v>
-      </c>
-      <c r="K382" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L382" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
@@ -11065,25 +11085,25 @@
         <v>41</v>
       </c>
       <c r="E383" s="4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F383" t="s">
         <v>50</v>
       </c>
       <c r="G383">
-        <v>14.030701754385966</v>
+        <v>13.86805367683616</v>
       </c>
       <c r="H383" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J383" t="s">
+        <v>80</v>
+      </c>
+      <c r="K383" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L383" t="s">
         <v>81</v>
-      </c>
-      <c r="K383" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L383" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
@@ -11102,25 +11122,25 @@
         <v>41</v>
       </c>
       <c r="E384" s="4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F384" t="s">
         <v>50</v>
       </c>
       <c r="G384">
-        <v>13.86805367683616</v>
+        <v>13.778788731604468</v>
       </c>
       <c r="H384" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J384" t="s">
+        <v>80</v>
+      </c>
+      <c r="K384" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L384" t="s">
         <v>81</v>
-      </c>
-      <c r="K384" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L384" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
@@ -11139,25 +11159,25 @@
         <v>41</v>
       </c>
       <c r="E385" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F385" t="s">
         <v>50</v>
       </c>
       <c r="G385">
-        <v>13.778788731604468</v>
+        <v>13.660467239831632</v>
       </c>
       <c r="H385" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J385" t="s">
+        <v>80</v>
+      </c>
+      <c r="K385" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L385" t="s">
         <v>81</v>
-      </c>
-      <c r="K385" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L385" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
@@ -11176,25 +11196,25 @@
         <v>41</v>
       </c>
       <c r="E386" s="4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F386" t="s">
         <v>50</v>
       </c>
       <c r="G386">
-        <v>13.660467239831632</v>
+        <v>13.747772565737003</v>
       </c>
       <c r="H386" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J386" t="s">
+        <v>80</v>
+      </c>
+      <c r="K386" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L386" t="s">
         <v>81</v>
-      </c>
-      <c r="K386" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L386" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
@@ -11213,25 +11233,25 @@
         <v>41</v>
       </c>
       <c r="E387" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F387" t="s">
         <v>50</v>
       </c>
       <c r="G387">
-        <v>13.747772565737003</v>
+        <v>13.586171271694839</v>
       </c>
       <c r="H387" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J387" t="s">
+        <v>80</v>
+      </c>
+      <c r="K387" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L387" t="s">
         <v>81</v>
-      </c>
-      <c r="K387" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L387" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
@@ -11250,25 +11270,25 @@
         <v>41</v>
       </c>
       <c r="E388" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F388" t="s">
         <v>50</v>
       </c>
       <c r="G388">
-        <v>13.586171271694839</v>
+        <v>13.631688462365574</v>
       </c>
       <c r="H388" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J388" t="s">
+        <v>80</v>
+      </c>
+      <c r="K388" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L388" t="s">
         <v>81</v>
-      </c>
-      <c r="K388" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L388" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
@@ -11287,25 +11307,25 @@
         <v>41</v>
       </c>
       <c r="E389" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F389" t="s">
         <v>50</v>
       </c>
       <c r="G389">
-        <v>13.631688462365574</v>
+        <v>13.617766573905532</v>
       </c>
       <c r="H389" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J389" t="s">
+        <v>80</v>
+      </c>
+      <c r="K389" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L389" t="s">
         <v>81</v>
-      </c>
-      <c r="K389" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L389" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
@@ -11324,34 +11344,34 @@
         <v>41</v>
       </c>
       <c r="E390" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F390" t="s">
         <v>50</v>
       </c>
       <c r="G390">
-        <v>13.617766573905532</v>
+        <v>13.535408452010143</v>
       </c>
       <c r="H390" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J390" t="s">
+        <v>80</v>
+      </c>
+      <c r="K390" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L390" t="s">
         <v>81</v>
-      </c>
-      <c r="K390" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L390" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A391:A395" si="14">$A$6</f>
         <v>CHE</v>
       </c>
       <c r="B391" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="B391:B395" si="15">$B$6</f>
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C391" t="s">
@@ -11361,34 +11381,34 @@
         <v>41</v>
       </c>
       <c r="E391" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F391" t="s">
         <v>50</v>
       </c>
       <c r="G391">
-        <v>13.535408452010143</v>
+        <v>13.549564192564148</v>
       </c>
       <c r="H391" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J391" t="s">
+        <v>80</v>
+      </c>
+      <c r="K391" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L391" t="s">
         <v>81</v>
-      </c>
-      <c r="K391" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L391" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" t="str">
-        <f t="shared" ref="A392:A428" si="14">$A$6</f>
+        <f t="shared" si="14"/>
         <v>CHE</v>
       </c>
       <c r="B392" t="str">
-        <f t="shared" ref="B392:B428" si="15">$B$6</f>
+        <f t="shared" si="15"/>
         <v>conv_pass_BUSe</v>
       </c>
       <c r="C392" t="s">
@@ -11398,25 +11418,25 @@
         <v>41</v>
       </c>
       <c r="E392" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F392" t="s">
         <v>50</v>
       </c>
       <c r="G392">
-        <v>13.549564192564148</v>
+        <v>13.315673181578768</v>
       </c>
       <c r="H392" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J392" t="s">
+        <v>80</v>
+      </c>
+      <c r="K392" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L392" t="s">
         <v>81</v>
-      </c>
-      <c r="K392" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L392" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
@@ -11435,25 +11455,25 @@
         <v>41</v>
       </c>
       <c r="E393" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F393" t="s">
         <v>50</v>
       </c>
       <c r="G393">
-        <v>13.315673181578768</v>
+        <v>13.588614763325307</v>
       </c>
       <c r="H393" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J393" t="s">
+        <v>80</v>
+      </c>
+      <c r="K393" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L393" t="s">
         <v>81</v>
-      </c>
-      <c r="K393" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L393" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
@@ -11472,25 +11492,25 @@
         <v>41</v>
       </c>
       <c r="E394" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F394" t="s">
         <v>50</v>
       </c>
       <c r="G394">
-        <v>13.588614763325307</v>
+        <v>11.768257250215719</v>
       </c>
       <c r="H394" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J394" t="s">
+        <v>80</v>
+      </c>
+      <c r="K394" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L394" t="s">
         <v>81</v>
-      </c>
-      <c r="K394" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L394" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
@@ -11509,1187 +11529,44 @@
         <v>41</v>
       </c>
       <c r="E395" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F395" t="s">
         <v>50</v>
       </c>
       <c r="G395">
-        <v>11.768257250215719</v>
+        <v>11.766576553990241</v>
       </c>
       <c r="H395" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J395" t="s">
+        <v>80</v>
+      </c>
+      <c r="K395" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L395" t="s">
         <v>81</v>
       </c>
-      <c r="K395" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L395" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A396" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B396" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C396" t="s">
-        <v>34</v>
-      </c>
-      <c r="D396" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E396" s="4">
-        <v>2021</v>
-      </c>
-      <c r="F396" t="s">
-        <v>50</v>
-      </c>
-      <c r="G396">
-        <v>11.766576553990241</v>
-      </c>
-      <c r="H396" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J396" t="s">
-        <v>81</v>
-      </c>
-      <c r="K396" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L396" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A397" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B397" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C397" t="s">
-        <v>34</v>
-      </c>
-      <c r="D397" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E397" s="4">
-        <v>1990</v>
-      </c>
-      <c r="F397" t="s">
-        <v>51</v>
-      </c>
-      <c r="K397" s="2"/>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A398" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B398" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C398" t="s">
-        <v>34</v>
-      </c>
-      <c r="D398" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E398" s="4">
-        <v>1991</v>
-      </c>
-      <c r="F398" t="s">
-        <v>51</v>
-      </c>
-      <c r="K398" s="2"/>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A399" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B399" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C399" t="s">
-        <v>34</v>
-      </c>
-      <c r="D399" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E399" s="4">
-        <v>1992</v>
-      </c>
-      <c r="F399" t="s">
-        <v>51</v>
-      </c>
-      <c r="K399" s="2"/>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A400" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B400" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C400" t="s">
-        <v>34</v>
-      </c>
-      <c r="D400" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E400" s="4">
-        <v>1993</v>
-      </c>
-      <c r="F400" t="s">
-        <v>51</v>
-      </c>
-      <c r="K400" s="2"/>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A401" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B401" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C401" t="s">
-        <v>34</v>
-      </c>
-      <c r="D401" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E401" s="4">
-        <v>1994</v>
-      </c>
-      <c r="F401" t="s">
-        <v>51</v>
-      </c>
-      <c r="K401" s="2"/>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A402" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B402" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C402" t="s">
-        <v>34</v>
-      </c>
-      <c r="D402" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E402" s="4">
-        <v>1995</v>
-      </c>
-      <c r="F402" t="s">
-        <v>51</v>
-      </c>
-      <c r="K402" s="2"/>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A403" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B403" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C403" t="s">
-        <v>34</v>
-      </c>
-      <c r="D403" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E403" s="4">
-        <v>1996</v>
-      </c>
-      <c r="F403" t="s">
-        <v>51</v>
-      </c>
-      <c r="K403" s="2"/>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A404" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B404" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C404" t="s">
-        <v>34</v>
-      </c>
-      <c r="D404" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E404" s="4">
-        <v>1997</v>
-      </c>
-      <c r="F404" t="s">
-        <v>51</v>
-      </c>
-      <c r="G404">
-        <f t="shared" ref="G404:G428" si="16">G372</f>
-        <v>12.892920342028125</v>
-      </c>
-      <c r="H404" t="s">
-        <v>47</v>
-      </c>
-      <c r="J404" t="s">
-        <v>81</v>
-      </c>
-      <c r="K404" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L404" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A405" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B405" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C405" t="s">
-        <v>34</v>
-      </c>
-      <c r="D405" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E405" s="4">
-        <v>1998</v>
-      </c>
-      <c r="F405" t="s">
-        <v>51</v>
-      </c>
-      <c r="G405">
-        <f t="shared" si="16"/>
-        <v>12.480647119404717</v>
-      </c>
-      <c r="H405" t="s">
-        <v>47</v>
-      </c>
-      <c r="J405" t="s">
-        <v>81</v>
-      </c>
-      <c r="K405" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L405" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A406" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B406" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C406" t="s">
-        <v>34</v>
-      </c>
-      <c r="D406" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E406" s="4">
-        <v>1999</v>
-      </c>
-      <c r="F406" t="s">
-        <v>51</v>
-      </c>
-      <c r="G406">
-        <f t="shared" si="16"/>
-        <v>12.343507748628877</v>
-      </c>
-      <c r="H406" t="s">
-        <v>47</v>
-      </c>
-      <c r="J406" t="s">
-        <v>81</v>
-      </c>
-      <c r="K406" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L406" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A407" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B407" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C407" t="s">
-        <v>34</v>
-      </c>
-      <c r="D407" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E407" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F407" t="s">
-        <v>51</v>
-      </c>
-      <c r="G407">
-        <f t="shared" si="16"/>
-        <v>12.334430158565448</v>
-      </c>
-      <c r="H407" t="s">
-        <v>47</v>
-      </c>
-      <c r="J407" t="s">
-        <v>81</v>
-      </c>
-      <c r="K407" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L407" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A408" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B408" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C408" t="s">
-        <v>34</v>
-      </c>
-      <c r="D408" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E408" s="4">
-        <v>2001</v>
-      </c>
-      <c r="F408" t="s">
-        <v>51</v>
-      </c>
-      <c r="G408">
-        <f t="shared" si="16"/>
-        <v>12.327709046357086</v>
-      </c>
-      <c r="H408" t="s">
-        <v>47</v>
-      </c>
-      <c r="J408" t="s">
-        <v>81</v>
-      </c>
-      <c r="K408" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L408" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A409" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B409" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C409" t="s">
-        <v>34</v>
-      </c>
-      <c r="D409" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E409" s="4">
-        <v>2002</v>
-      </c>
-      <c r="F409" t="s">
-        <v>51</v>
-      </c>
-      <c r="G409">
-        <f t="shared" si="16"/>
-        <v>12.239624778211674</v>
-      </c>
-      <c r="H409" t="s">
-        <v>47</v>
-      </c>
-      <c r="J409" t="s">
-        <v>81</v>
-      </c>
-      <c r="K409" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L409" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A410" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B410" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C410" t="s">
-        <v>34</v>
-      </c>
-      <c r="D410" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E410" s="4">
-        <v>2003</v>
-      </c>
-      <c r="F410" t="s">
-        <v>51</v>
-      </c>
-      <c r="G410">
-        <f t="shared" si="16"/>
-        <v>12.163790840106042</v>
-      </c>
-      <c r="H410" t="s">
-        <v>47</v>
-      </c>
-      <c r="J410" t="s">
-        <v>81</v>
-      </c>
-      <c r="K410" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L410" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A411" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B411" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C411" t="s">
-        <v>34</v>
-      </c>
-      <c r="D411" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E411" s="4">
-        <v>2004</v>
-      </c>
-      <c r="F411" t="s">
-        <v>51</v>
-      </c>
-      <c r="G411">
-        <f t="shared" si="16"/>
-        <v>12.118962413188155</v>
-      </c>
-      <c r="H411" t="s">
-        <v>47</v>
-      </c>
-      <c r="J411" t="s">
-        <v>81</v>
-      </c>
-      <c r="K411" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L411" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A412" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B412" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C412" t="s">
-        <v>34</v>
-      </c>
-      <c r="D412" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E412" s="4">
-        <v>2005</v>
-      </c>
-      <c r="F412" t="s">
-        <v>51</v>
-      </c>
-      <c r="G412">
-        <f t="shared" si="16"/>
-        <v>14.267666963331084</v>
-      </c>
-      <c r="H412" t="s">
-        <v>47</v>
-      </c>
-      <c r="J412" t="s">
-        <v>81</v>
-      </c>
-      <c r="K412" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L412" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A413" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B413" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C413" t="s">
-        <v>34</v>
-      </c>
-      <c r="D413" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E413" s="4">
-        <v>2006</v>
-      </c>
-      <c r="F413" t="s">
-        <v>51</v>
-      </c>
-      <c r="G413">
-        <f t="shared" si="16"/>
-        <v>14.442759666413949</v>
-      </c>
-      <c r="H413" t="s">
-        <v>47</v>
-      </c>
-      <c r="J413" t="s">
-        <v>81</v>
-      </c>
-      <c r="K413" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L413" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A414" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B414" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C414" t="s">
-        <v>34</v>
-      </c>
-      <c r="D414" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E414" s="4">
-        <v>2007</v>
-      </c>
-      <c r="F414" t="s">
-        <v>51</v>
-      </c>
-      <c r="G414">
-        <f t="shared" si="16"/>
-        <v>14.756921105546322</v>
-      </c>
-      <c r="H414" t="s">
-        <v>47</v>
-      </c>
-      <c r="J414" t="s">
-        <v>81</v>
-      </c>
-      <c r="K414" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L414" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A415" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B415" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C415" t="s">
-        <v>34</v>
-      </c>
-      <c r="D415" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E415" s="4">
-        <v>2008</v>
-      </c>
-      <c r="F415" t="s">
-        <v>51</v>
-      </c>
-      <c r="G415">
-        <f t="shared" si="16"/>
-        <v>14.030701754385966</v>
-      </c>
-      <c r="H415" t="s">
-        <v>47</v>
-      </c>
-      <c r="J415" t="s">
-        <v>81</v>
-      </c>
-      <c r="K415" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L415" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A416" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B416" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C416" t="s">
-        <v>34</v>
-      </c>
-      <c r="D416" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E416" s="4">
-        <v>2009</v>
-      </c>
-      <c r="F416" t="s">
-        <v>51</v>
-      </c>
-      <c r="G416">
-        <f t="shared" si="16"/>
-        <v>13.86805367683616</v>
-      </c>
-      <c r="H416" t="s">
-        <v>47</v>
-      </c>
-      <c r="J416" t="s">
-        <v>81</v>
-      </c>
-      <c r="K416" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L416" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A417" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B417" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C417" t="s">
-        <v>34</v>
-      </c>
-      <c r="D417" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E417" s="4">
-        <v>2010</v>
-      </c>
-      <c r="F417" t="s">
-        <v>51</v>
-      </c>
-      <c r="G417">
-        <f t="shared" si="16"/>
-        <v>13.778788731604468</v>
-      </c>
-      <c r="H417" t="s">
-        <v>47</v>
-      </c>
-      <c r="J417" t="s">
-        <v>81</v>
-      </c>
-      <c r="K417" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L417" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A418" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B418" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C418" t="s">
-        <v>34</v>
-      </c>
-      <c r="D418" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E418" s="4">
-        <v>2011</v>
-      </c>
-      <c r="F418" t="s">
-        <v>51</v>
-      </c>
-      <c r="G418">
-        <f t="shared" si="16"/>
-        <v>13.660467239831632</v>
-      </c>
-      <c r="H418" t="s">
-        <v>47</v>
-      </c>
-      <c r="J418" t="s">
-        <v>81</v>
-      </c>
-      <c r="K418" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L418" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A419" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B419" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C419" t="s">
-        <v>34</v>
-      </c>
-      <c r="D419" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E419" s="4">
-        <v>2012</v>
-      </c>
-      <c r="F419" t="s">
-        <v>51</v>
-      </c>
-      <c r="G419">
-        <f t="shared" si="16"/>
-        <v>13.747772565737003</v>
-      </c>
-      <c r="H419" t="s">
-        <v>47</v>
-      </c>
-      <c r="J419" t="s">
-        <v>81</v>
-      </c>
-      <c r="K419" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L419" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A420" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B420" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C420" t="s">
-        <v>34</v>
-      </c>
-      <c r="D420" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E420" s="4">
-        <v>2013</v>
-      </c>
-      <c r="F420" t="s">
-        <v>51</v>
-      </c>
-      <c r="G420">
-        <f t="shared" si="16"/>
-        <v>13.586171271694839</v>
-      </c>
-      <c r="H420" t="s">
-        <v>47</v>
-      </c>
-      <c r="J420" t="s">
-        <v>81</v>
-      </c>
-      <c r="K420" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L420" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A421" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B421" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C421" t="s">
-        <v>34</v>
-      </c>
-      <c r="D421" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E421" s="4">
-        <v>2014</v>
-      </c>
-      <c r="F421" t="s">
-        <v>51</v>
-      </c>
-      <c r="G421">
-        <f t="shared" si="16"/>
-        <v>13.631688462365574</v>
-      </c>
-      <c r="H421" t="s">
-        <v>47</v>
-      </c>
-      <c r="J421" t="s">
-        <v>81</v>
-      </c>
-      <c r="K421" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L421" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A422" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B422" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C422" t="s">
-        <v>34</v>
-      </c>
-      <c r="D422" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E422" s="4">
-        <v>2015</v>
-      </c>
-      <c r="F422" t="s">
-        <v>51</v>
-      </c>
-      <c r="G422">
-        <f t="shared" si="16"/>
-        <v>13.617766573905532</v>
-      </c>
-      <c r="H422" t="s">
-        <v>47</v>
-      </c>
-      <c r="J422" t="s">
-        <v>81</v>
-      </c>
-      <c r="K422" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L422" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A423" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B423" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C423" t="s">
-        <v>34</v>
-      </c>
-      <c r="D423" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E423" s="4">
-        <v>2016</v>
-      </c>
-      <c r="F423" t="s">
-        <v>51</v>
-      </c>
-      <c r="G423">
-        <f t="shared" si="16"/>
-        <v>13.535408452010143</v>
-      </c>
-      <c r="H423" t="s">
-        <v>47</v>
-      </c>
-      <c r="J423" t="s">
-        <v>81</v>
-      </c>
-      <c r="K423" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L423" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A424" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B424" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C424" t="s">
-        <v>34</v>
-      </c>
-      <c r="D424" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E424" s="4">
-        <v>2017</v>
-      </c>
-      <c r="F424" t="s">
-        <v>51</v>
-      </c>
-      <c r="G424">
-        <f t="shared" si="16"/>
-        <v>13.549564192564148</v>
-      </c>
-      <c r="H424" t="s">
-        <v>47</v>
-      </c>
-      <c r="J424" t="s">
-        <v>81</v>
-      </c>
-      <c r="K424" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L424" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A425" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B425" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C425" t="s">
-        <v>34</v>
-      </c>
-      <c r="D425" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E425" s="4">
-        <v>2018</v>
-      </c>
-      <c r="F425" t="s">
-        <v>51</v>
-      </c>
-      <c r="G425">
-        <f t="shared" si="16"/>
-        <v>13.315673181578768</v>
-      </c>
-      <c r="H425" t="s">
-        <v>47</v>
-      </c>
-      <c r="J425" t="s">
-        <v>81</v>
-      </c>
-      <c r="K425" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L425" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A426" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B426" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C426" t="s">
-        <v>34</v>
-      </c>
-      <c r="D426" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E426" s="4">
-        <v>2019</v>
-      </c>
-      <c r="F426" t="s">
-        <v>51</v>
-      </c>
-      <c r="G426">
-        <f t="shared" si="16"/>
-        <v>13.588614763325307</v>
-      </c>
-      <c r="H426" t="s">
-        <v>47</v>
-      </c>
-      <c r="J426" t="s">
-        <v>81</v>
-      </c>
-      <c r="K426" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L426" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A427" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B427" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C427" t="s">
-        <v>34</v>
-      </c>
-      <c r="D427" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E427" s="4">
-        <v>2020</v>
-      </c>
-      <c r="F427" t="s">
-        <v>51</v>
-      </c>
-      <c r="G427">
-        <f t="shared" si="16"/>
-        <v>11.768257250215719</v>
-      </c>
-      <c r="H427" t="s">
-        <v>47</v>
-      </c>
-      <c r="J427" t="s">
-        <v>81</v>
-      </c>
-      <c r="K427" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L427" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A428" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B428" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSe</v>
-      </c>
-      <c r="C428" t="s">
-        <v>34</v>
-      </c>
-      <c r="D428" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E428" s="4">
-        <v>2021</v>
-      </c>
-      <c r="F428" t="s">
-        <v>51</v>
-      </c>
-      <c r="G428">
-        <f t="shared" si="16"/>
-        <v>11.766576553990241</v>
-      </c>
-      <c r="H428" t="s">
-        <v>47</v>
-      </c>
-      <c r="J428" t="s">
-        <v>81</v>
-      </c>
-      <c r="K428" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L428" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L844" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L811" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A6:L193 A194:G201 I194:L201 A202:L235 A236:G236 I236:L236 A237:L332 A333:F333 A334:L371 A372:G396 I372:L396 A397:L428">
+  <conditionalFormatting sqref="A6:L13 A193:G200 I193:L200 A201:L234 A235:G235 I235:L235 A236:L331 A332:F332 A333:L370 A371:G395 I371:L395 A15:L192 A14:I14">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"TODO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:L14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"TODO"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="K13" r:id="rId1" xr:uid="{333A7F3E-6247-6241-8C61-62EF5C3CEACF}"/>
-    <hyperlink ref="K195:K201" r:id="rId2" display="https://assets.bbhub.io/professional/sites/24/2018/05/Electric-Buses-in-Cities-Report-BNEF-C40-Citi.pdf" xr:uid="{A38BBF35-CF13-0244-9508-4D926D1A64F1}"/>
-    <hyperlink ref="K360" r:id="rId3" xr:uid="{63BCD521-4408-2E4C-B52C-CAAB8580D56F}"/>
+    <hyperlink ref="K194:K200" r:id="rId2" display="https://assets.bbhub.io/professional/sites/24/2018/05/Electric-Buses-in-Cities-Report-BNEF-C40-Citi.pdf" xr:uid="{A38BBF35-CF13-0244-9508-4D926D1A64F1}"/>
+    <hyperlink ref="K359" r:id="rId3" xr:uid="{63BCD521-4408-2E4C-B52C-CAAB8580D56F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
